--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527AF78-30DE-FE4C-A21E-2AA7EC3D5ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D12FB63-6F8D-594D-A469-C502C6C230A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7120" yWindow="6220" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>XX</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>Runtime</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -117,8 +132,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,24 +448,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +478,11 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -476,7 +494,7 @@
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -491,7 +509,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -503,7 +521,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -513,6 +531,30 @@
       </c>
       <c r="D5" s="2">
         <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7">
+        <f>374.7/86400</f>
+        <v>4.3368055555555556E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D12FB63-6F8D-594D-A469-C502C6C230A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61246F1D-E28B-C449-8F0B-4604839ADEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7120" yWindow="6220" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -454,7 +454,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,6 +556,9 @@
         <f>374.7/86400</f>
         <v>4.3368055555555556E-3</v>
       </c>
+      <c r="D9" s="2">
+        <v>3.0999999999999999E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61246F1D-E28B-C449-8F0B-4604839ADEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D070290-D169-A949-A549-B6E981332A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7120" yWindow="6220" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>XX</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -448,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,83 +490,118 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <f>458.9/86400</f>
+        <v>5.3113425925925923E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <f>4083.8/86400</f>
+        <v>4.7266203703703706E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <f>2011.1/86400</f>
+        <v>2.3276620370370368E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <f>374.7/86400</f>
+        <v>4.3368055555555556E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C7" s="7">
         <f>(5450.1/10)/86400</f>
         <v>6.3079861111111114E-3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D7" s="2">
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7">
-        <f>458.9/86400</f>
-        <v>5.3113425925925923E-3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C8" s="7">
         <f>349.3/86400</f>
         <v>4.0428240740740745E-3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D8" s="2">
         <v>1.1299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <f>4083.8/86400</f>
-        <v>4.7266203703703706E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.54E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7">
-        <f>374.7/86400</f>
-        <v>4.3368055555555556E-3</v>
+        <f>1725.2/86400</f>
+        <v>1.9967592592592592E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>3.0999999999999999E-3</v>
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE(D2:D10)</f>
+        <v>1.7342857142857142E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <f>MEDIAN(D2:D10)</f>
+        <v>1.1299999999999999E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+    <sortCondition ref="A2:A9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D070290-D169-A949-A549-B6E981332A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB95EDD-BF8D-9A40-ABD0-2B4217E8ED67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="6220" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="1540" yWindow="1060" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,49 +495,21 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
-        <f>458.9/86400</f>
-        <v>5.3113425925925923E-3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
-        <f>4083.8/86400</f>
-        <v>4.7266203703703706E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.54E-2</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7">
-        <f>2011.1/86400</f>
-        <v>2.3276620370370368E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
-        <f>374.7/86400</f>
-        <v>4.3368055555555556E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.0999999999999999E-3</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -549,36 +521,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <f>(5450.1/10)/86400</f>
-        <v>6.3079861111111114E-3</v>
+        <f>361.1/86400</f>
+        <v>4.1793981481481482E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>3.8699999999999998E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
-        <f>349.3/86400</f>
-        <v>4.0428240740740745E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.1299999999999999E-2</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7">
-        <f>1725.2/86400</f>
-        <v>1.9967592592592592E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8.6999999999999994E-3</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
@@ -586,7 +544,7 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>1.7342857142857142E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -595,7 +553,7 @@
       </c>
       <c r="D12" s="2">
         <f>MEDIAN(D2:D10)</f>
-        <v>1.1299999999999999E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB95EDD-BF8D-9A40-ABD0-2B4217E8ED67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEA2082-0E66-2F4B-9975-2972C8C9A3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="1060" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -521,11 +521,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <f>361.1/86400</f>
-        <v>4.1793981481481482E-3</v>
+        <f>454.5/86400</f>
+        <v>5.2604166666666667E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>8.8000000000000005E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -544,7 +544,7 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>8.8000000000000005E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -553,7 +553,7 @@
       </c>
       <c r="D12" s="2">
         <f>MEDIAN(D2:D10)</f>
-        <v>8.8000000000000005E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEA2082-0E66-2F4B-9975-2972C8C9A3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5310D5-30BC-1D48-9DE3-78064ACDB740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="1060" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -460,7 +460,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,6 +495,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="7">
+        <f>371.2/86400</f>
+        <v>4.2962962962962963E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4.2299999999999997E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -544,7 +551,7 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>1.2E-2</v>
+        <v>2.7150000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -553,7 +560,7 @@
       </c>
       <c r="D12" s="2">
         <f>MEDIAN(D2:D10)</f>
-        <v>1.2E-2</v>
+        <v>2.7150000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5310D5-30BC-1D48-9DE3-78064ACDB740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F014FBDA-0DEA-F047-920F-DBEFB9027904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1060" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="23940" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>XX</t>
   </si>
@@ -454,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,7 +471,7 @@
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -500,30 +500,43 @@
         <v>4.2962962962962963E-3</v>
       </c>
       <c r="D2" s="2">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F2" s="2">
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="7">
+        <f>468.2/86400</f>
+        <v>5.4189814814814812E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -535,32 +548,32 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>2.7150000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3333333333333336E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2">
         <f>MEDIAN(D2:D10)</f>
-        <v>2.7150000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F014FBDA-0DEA-F047-920F-DBEFB9027904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C91F1C-8221-744B-87FC-6AA1DB501204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23940" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -454,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,9 +469,10 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,11 +485,12 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -502,11 +504,11 @@
       <c r="D2" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -517,26 +519,26 @@
       <c r="D3" s="2">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -545,39 +547,42 @@
         <v>5.2604166666666667E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>1.3333333333333336E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.2066666666666668E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2">
         <f>MEDIAN(D2:D10)</f>
-        <v>1.2E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
     <sortCondition ref="A2:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C91F1C-8221-744B-87FC-6AA1DB501204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD0F9C-0C60-3547-A7FE-B6E300F0D42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23940" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -460,7 +460,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,7 +502,7 @@
         <v>4.2962962962962963E-3</v>
       </c>
       <c r="D2" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G2" s="2">
         <v>4.2299999999999997E-2</v>
@@ -569,7 +569,7 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>1.2066666666666668E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
       </c>
       <c r="D12" s="2">
         <f>MEDIAN(D2:D10)</f>
-        <v>1.0500000000000001E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD0F9C-0C60-3547-A7FE-B6E300F0D42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E069B3-59DC-5840-B1C3-10A61CA97219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23940" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="26640" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>XX</t>
   </si>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>CA</t>
   </si>
 </sst>
 </file>
@@ -454,13 +475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,86 +525,133 @@
       <c r="D2" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="G2" s="2">
-        <v>4.2299999999999997E-2</v>
-      </c>
+      <c r="E2" s="2">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="7">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D3" s="2">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D4" s="2">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C10" s="7">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D10" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E10" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="7" t="s">
+      <c r="C16" s="7">
+        <f>647.3/86400</f>
+        <v>7.4918981481481477E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
-        <f>AVERAGE(D2:D10)</f>
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="7" t="s">
+      <c r="D18" s="2">
+        <f>AVERAGE(D2:D17)</f>
+        <v>6.2250000000000005E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2">
-        <f>MEDIAN(D2:D10)</f>
-        <v>9.4999999999999998E-3</v>
+      <c r="D19" s="2">
+        <f>MEDIAN(D2:D17)</f>
+        <v>7.2500000000000004E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
-    <sortCondition ref="A2:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E069B3-59DC-5840-B1C3-10A61CA97219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21268349-BD03-884E-853F-AFB2D9D37763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26640" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -128,12 +128,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -161,6 +167,18 @@
     </xf>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,10 +508,9 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,80 +523,74 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="14">
         <f>371.2/86400</f>
         <v>4.2962962962962963E-3</v>
       </c>
-      <c r="D2" s="2">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D4" s="2">
-        <v>6.3E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="11">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -588,38 +599,35 @@
         <v>5.2604166666666667E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8.2000000000000007E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -637,7 +645,7 @@
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D17)</f>
-        <v>6.2250000000000005E-3</v>
+        <v>1.0225000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -646,11 +654,11 @@
       </c>
       <c r="D19" s="2">
         <f>MEDIAN(D2:D17)</f>
-        <v>7.2500000000000004E-3</v>
+        <v>1.125E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
     <sortCondition ref="A2:A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21268349-BD03-884E-853F-AFB2D9D37763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF25F5CB-8576-F848-B248-CAE8ABFC5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26640" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -128,18 +128,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -167,12 +161,6 @@
     </xf>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,7 +487,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,21 +515,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <f>371.2/86400</f>
         <v>4.2962962962962963E-3</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="11">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -569,6 +557,13 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="7">
+        <f>953.5/86400</f>
+        <v>1.103587962962963E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.8999999999999998E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -645,7 +640,7 @@
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D17)</f>
-        <v>1.0225000000000001E-2</v>
+        <v>8.9600000000000009E-3</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -654,7 +649,7 @@
       </c>
       <c r="D19" s="2">
         <f>MEDIAN(D2:D17)</f>
-        <v>1.125E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF25F5CB-8576-F848-B248-CAE8ABFC5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFD203-7EA3-6D47-89EA-7EF3A1A03B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26640" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -487,7 +487,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,6 +574,13 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="7">
+        <f>463.1/86400</f>
+        <v>5.3599537037037036E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.8100000000000002E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -640,7 +647,7 @@
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D17)</f>
-        <v>8.9600000000000009E-3</v>
+        <v>1.0483333333333332E-2</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -649,7 +656,7 @@
       </c>
       <c r="D19" s="2">
         <f>MEDIAN(D2:D17)</f>
-        <v>1.0500000000000001E-2</v>
+        <v>1.125E-2</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFD203-7EA3-6D47-89EA-7EF3A1A03B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FD0424-87D8-E447-9AD0-8E9C338A2D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26640" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>XX</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>DRA calculates this as 0.17%.</t>
   </si>
 </sst>
 </file>
@@ -128,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -161,6 +170,12 @@
     </xf>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,7 +502,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,6 +511,7 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -515,21 +531,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="14">
         <f>371.2/86400</f>
         <v>4.2962962962962963E-3</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="15">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -537,19 +553,19 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="15">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -571,21 +587,32 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="11">
         <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="7">
+        <f>408/86400</f>
+        <v>4.7222222222222223E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.1999999999999998E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -647,7 +674,7 @@
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D17)</f>
-        <v>1.0483333333333332E-2</v>
+        <v>9.8714285714285709E-3</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -656,7 +683,7 @@
       </c>
       <c r="D19" s="2">
         <f>MEDIAN(D2:D17)</f>
-        <v>1.125E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FD0424-87D8-E447-9AD0-8E9C338A2D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2240A4-06DA-1E43-80C8-A1CF773BC12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26640" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -502,7 +502,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,6 +640,13 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="7">
+        <f>2316.8/86400</f>
+        <v>2.6814814814814816E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -674,7 +681,7 @@
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D17)</f>
-        <v>9.8714285714285709E-3</v>
+        <v>8.9499999999999996E-3</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -683,7 +690,7 @@
       </c>
       <c r="D19" s="2">
         <f>MEDIAN(D2:D17)</f>
-        <v>1.0500000000000001E-2</v>
+        <v>8.3499999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2240A4-06DA-1E43-80C8-A1CF773BC12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD05E18-B83B-7645-ABAA-D0B0428E6E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26640" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>XX</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>DRA calculates this as 0.17%.</t>
+  </si>
+  <si>
+    <t>DRA reports this as not contiguous.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,7 +514,7 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -585,6 +588,13 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
+      <c r="C6" s="7">
+        <f>459/86400</f>
+        <v>5.3125000000000004E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.0999999999999999E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -637,15 +647,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="11">
         <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -681,7 +695,7 @@
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D17)</f>
-        <v>8.9499999999999996E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -690,7 +704,7 @@
       </c>
       <c r="D19" s="2">
         <f>MEDIAN(D2:D17)</f>
-        <v>8.3499999999999998E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD05E18-B83B-7645-ABAA-D0B0428E6E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE2688-1CB5-B245-B2C0-8724751782D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26640" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>XX</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>DRA reports this as not contiguous.</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,6 +518,7 @@
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -548,13 +552,17 @@
       <c r="D2" s="15">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -569,7 +577,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -583,6 +591,9 @@
       <c r="D5" s="2">
         <v>3.8999999999999998E-3</v>
       </c>
+      <c r="F5" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -594,6 +605,9 @@
       </c>
       <c r="D6" s="2">
         <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -611,6 +625,9 @@
       <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="F7" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -623,11 +640,17 @@
       <c r="D8" s="2">
         <v>6.1999999999999998E-3</v>
       </c>
+      <c r="F8" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="F9" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -640,10 +663,16 @@
       <c r="D10" s="2">
         <v>1.2E-2</v>
       </c>
+      <c r="F10" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -661,21 +690,40 @@
       <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="F12" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
+      <c r="C13" s="7">
+        <f>357.6/86400</f>
+        <v>4.138888888888889E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.3E-3</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
+      <c r="F14" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
+      <c r="F15" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -688,6 +736,9 @@
       <c r="D16" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
+      <c r="F16" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
@@ -695,7 +746,7 @@
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D17)</f>
-        <v>8.3000000000000001E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -704,7 +755,7 @@
       </c>
       <c r="D19" s="2">
         <f>MEDIAN(D2:D17)</f>
-        <v>6.1999999999999998E-3</v>
+        <v>5.2499999999999995E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE2688-1CB5-B245-B2C0-8724751782D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E4969-FBC5-274C-B1D7-A9E4FF6D511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26640" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>XX</t>
   </si>
@@ -107,13 +107,7 @@
     <t>CA</t>
   </si>
   <si>
-    <t>DRA calculates this as 0.17%.</t>
-  </si>
-  <si>
     <t>DRA reports this as not contiguous.</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -502,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,10 +512,9 @@
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -552,19 +545,13 @@
       <c r="D2" s="15">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -576,11 +563,8 @@
       <c r="D4" s="15">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -591,11 +575,8 @@
       <c r="D5" s="2">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -606,30 +587,24 @@
       <c r="D6" s="2">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D7" s="11">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="15">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -640,19 +615,13 @@
       <c r="D8" s="2">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -663,19 +632,13 @@
       <c r="D10" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
@@ -688,13 +651,10 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -705,27 +665,25 @@
       <c r="D13" s="2">
         <v>4.3E-3</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="7">
+        <f>241.8/86400</f>
+        <v>2.7986111111111111E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -736,9 +694,6 @@
       <c r="D16" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
@@ -746,7 +701,7 @@
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D17)</f>
-        <v>7.9000000000000008E-3</v>
+        <v>5.8545454545454543E-3</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -755,7 +710,7 @@
       </c>
       <c r="D19" s="2">
         <f>MEDIAN(D2:D17)</f>
-        <v>5.2499999999999995E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E4969-FBC5-274C-B1D7-A9E4FF6D511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A923E-B81F-F944-9367-EBF847023DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="22560" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>XX</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>DRA reports this as not contiguous.</t>
+  </si>
+  <si>
+    <t>FL</t>
   </si>
 </sst>
 </file>
@@ -496,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,172 +553,184 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="7">
+        <f>4394.5/86400</f>
+        <v>5.0862268518518522E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D5" s="15">
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="7">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D8" s="15">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>6.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="7">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="7" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2">
-        <f>AVERAGE(D2:D17)</f>
-        <v>5.8545454545454543E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="2">
+        <f>AVERAGE(D2:D18)</f>
+        <v>6.1249999999999994E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2">
-        <f>MEDIAN(D2:D17)</f>
-        <v>3.8999999999999998E-3</v>
+      <c r="D20" s="2">
+        <f>MEDIAN(D2:D18)</f>
+        <v>4.0999999999999995E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
-    <sortCondition ref="A2:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A923E-B81F-F944-9367-EBF847023DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D1665-3634-E748-BC97-C9F76A515C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22560" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>XX</t>
   </si>
@@ -110,7 +110,13 @@
     <t>DRA reports this as not contiguous.</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>FL</t>
+  </si>
+  <si>
+    <t>Convert tracts to blockgroups or blocks</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,19 +556,33 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="11">
         <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7">
+        <f>1601.7/86400</f>
+        <v>1.8538194444444444E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -716,7 +736,7 @@
       </c>
       <c r="D19" s="2">
         <f>AVERAGE(D2:D18)</f>
-        <v>6.1249999999999994E-3</v>
+        <v>6.2615384615384616E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -725,7 +745,7 @@
       </c>
       <c r="D20" s="2">
         <f>MEDIAN(D2:D18)</f>
-        <v>4.0999999999999995E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D1665-3634-E748-BC97-C9F76A515C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109F15F-ED13-FA40-BB77-36ACDEE960B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22560" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -511,7 +511,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,9 +582,6 @@
       <c r="D4" s="2">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -655,6 +652,16 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="7">
+        <f>587.2/86400</f>
+        <v>6.7962962962962968E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -736,7 +743,7 @@
       </c>
       <c r="D19" s="2">
         <f>AVERAGE(D2:D18)</f>
-        <v>6.2615384615384616E-3</v>
+        <v>6.1571428571428567E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -745,7 +752,7 @@
       </c>
       <c r="D20" s="2">
         <f>MEDIAN(D2:D18)</f>
-        <v>4.3E-3</v>
+        <v>4.5500000000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109F15F-ED13-FA40-BB77-36ACDEE960B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D529D4F-EC3B-7243-8DD3-2379745E393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22560" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>XX</t>
   </si>
@@ -511,7 +511,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,6 +679,16 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
+      <c r="C12" s="7">
+        <f>649.4/86400</f>
+        <v>7.5162037037037038E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -743,7 +753,7 @@
       </c>
       <c r="D19" s="2">
         <f>AVERAGE(D2:D18)</f>
-        <v>6.1571428571428567E-3</v>
+        <v>5.94E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -752,7 +762,7 @@
       </c>
       <c r="D20" s="2">
         <f>MEDIAN(D2:D18)</f>
-        <v>4.5500000000000002E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D529D4F-EC3B-7243-8DD3-2379745E393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D134E39-B1DE-0F45-A2EE-EE8A521094DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22560" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>XX</t>
   </si>
@@ -511,7 +511,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,9 +659,6 @@
       <c r="D10" s="2">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D134E39-B1DE-0F45-A2EE-EE8A521094DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD9A09-FC78-E94E-81F9-4727A8B13082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22560" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>XX</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>DRA reports this as not contiguous.</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>FL</t>
@@ -511,7 +508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,12 +565,12 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7">
         <f>1601.7/86400</f>
@@ -683,9 +680,6 @@
       <c r="D12" s="2">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -731,6 +725,13 @@
       <c r="A16" t="s">
         <v>4</v>
       </c>
+      <c r="C16" s="7">
+        <f>443.6/86400</f>
+        <v>5.1342592592592594E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8.6E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -750,7 +751,7 @@
       </c>
       <c r="D19" s="2">
         <f>AVERAGE(D2:D18)</f>
-        <v>5.94E-3</v>
+        <v>6.1062499999999997E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -759,7 +760,7 @@
       </c>
       <c r="D20" s="2">
         <f>MEDIAN(D2:D18)</f>
-        <v>4.3E-3</v>
+        <v>4.5500000000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD9A09-FC78-E94E-81F9-4727A8B13082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94007F6-C260-C243-A7E6-61B8323DE4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22560" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +517,7 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -537,34 +537,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="7">
         <f>371.2/86400</f>
         <v>4.2962962962962963E-3</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="15">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -580,16 +580,15 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14">
+      <c r="C5" s="7">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="2">
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
@@ -618,18 +617,17 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14">
+      <c r="C8" s="7">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94007F6-C260-C243-A7E6-61B8323DE4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F593AB-EE77-DF4F-AE0E-F4C09CD5D992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>XX</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Convert tracts to blockgroups or blocks</t>
+  </si>
+  <si>
+    <t>OR</t>
   </si>
 </sst>
 </file>
@@ -502,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="A3:E3"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,61 +712,73 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7">
+        <f>410.2/86400</f>
+        <v>4.7476851851851846E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="7">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2">
-        <f>AVERAGE(D2:D18)</f>
-        <v>6.1062499999999997E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2">
+        <f>AVERAGE(D2:D19)</f>
+        <v>5.923529411764706E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2">
-        <f>MEDIAN(D2:D18)</f>
-        <v>4.5500000000000002E-3</v>
+      <c r="D21" s="2">
+        <f>MEDIAN(D2:D19)</f>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
-    <sortCondition ref="A2:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
+    <sortCondition ref="A2:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F593AB-EE77-DF4F-AE0E-F4C09CD5D992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40399F7-6F98-B54A-AF4F-10B0FC2ADEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>XX</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>AL</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -191,6 +194,12 @@
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,13 +514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,245 +549,263 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18">
+        <f>398.2/86400</f>
+        <v>4.6087962962962957E-3</v>
+      </c>
+      <c r="D2" s="19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C4" s="7">
         <f>371.2/86400</f>
         <v>4.2962962962962963E-3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D4" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D5" s="15">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C6" s="7">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="2">
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C7" s="7">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C8" s="7">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C9" s="7">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C10" s="7">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C11" s="7">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D11" s="2">
         <v>6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C12" s="7">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D12" s="2">
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C13" s="7">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="2">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C14" s="7">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D15" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C16" s="7">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D16" s="2">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C17" s="7">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D17" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C18" s="7">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D18" s="2">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C19" s="7">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D19" s="2">
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C20" s="7">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D20" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="7" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2">
-        <f>AVERAGE(D2:D19)</f>
+      <c r="D22" s="2">
+        <f>AVERAGE(D4:D21)</f>
         <v>5.923529411764706E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="7" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="2">
-        <f>MEDIAN(D2:D19)</f>
+      <c r="D23" s="2">
+        <f>MEDIAN(D4:D21)</f>
         <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
-    <sortCondition ref="A2:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E20">
+    <sortCondition ref="A4:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40399F7-6F98-B54A-AF4F-10B0FC2ADEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AC91FF-D956-2B4B-9D95-181058030599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>XX</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>AL</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,10 +565,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18">
+        <f>414.2/86400</f>
+        <v>4.7939814814814815E-3</v>
+      </c>
+      <c r="D3" s="19">
+        <v>6.8999999999999999E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AC91FF-D956-2B4B-9D95-181058030599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA1DD7-D4AB-6C46-AB94-CF10ED0297F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>XX</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>AR</t>
+  </si>
+  <si>
+    <t>Much lower in DRA: 0.04%</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,6 +580,9 @@
       <c r="D3" s="19">
         <v>6.8999999999999999E-3</v>
       </c>
+      <c r="E3" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA1DD7-D4AB-6C46-AB94-CF10ED0297F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABFE4AF-45BC-9541-B11F-31D18A71C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>XX</t>
   </si>
@@ -125,7 +125,16 @@
     <t>AR</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>Much lower in DRA: 0.04%</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
   </si>
 </sst>
 </file>
@@ -520,13 +529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +590,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -616,213 +625,245 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14">
+        <f>448/86400</f>
+        <v>5.185185185185185E-3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C9" s="7">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D9" s="2">
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C10" s="7">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D10" s="2">
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C11" s="7">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D11" s="2">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C12" s="7">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D12" s="2">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C13" s="7">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D13" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C14" s="7">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D14" s="2">
         <v>6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C15" s="7">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D15" s="2">
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C16" s="7">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D16" s="2">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C17" s="7">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D17" s="2">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D18" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C19" s="7">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D19" s="2">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C20" s="7">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D20" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C21" s="7">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D21" s="2">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C22" s="7">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D22" s="2">
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C23" s="7">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D23" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="7" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2">
-        <f>AVERAGE(D4:D21)</f>
-        <v>5.923529411764706E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="7" t="s">
+      <c r="D25" s="2">
+        <f>AVERAGE(D4:D24)</f>
+        <v>5.8222222222222217E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="2">
-        <f>MEDIAN(D4:D21)</f>
-        <v>4.3E-3</v>
+      <c r="D26" s="2">
+        <f>MEDIAN(D4:D24)</f>
+        <v>4.2000000000000006E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E20">
-    <sortCondition ref="A4:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E23">
+    <sortCondition ref="A4:A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABFE4AF-45BC-9541-B11F-31D18A71C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD20AF5-CC80-AC4E-9CDE-3B89E3ABA842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -135,6 +135,54 @@
   </si>
   <si>
     <t>CT</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>WI</t>
   </si>
 </sst>
 </file>
@@ -529,13 +577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,48 +684,51 @@
       <c r="D6" s="15">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="14">
+        <f>362.9/86400</f>
+        <v>4.200231481481481E-3</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7">
+        <f>1601.7/86400</f>
+        <v>1.8538194444444444E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.9000000000000008E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7">
-        <f>1601.7/86400</f>
-        <v>1.8538194444444444E-2</v>
+        <f>468.2/86400</f>
+        <v>5.4189814814814812E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7">
-        <f>468.2/86400</f>
-        <v>5.4189814814814812E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0500000000000001E-2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -694,176 +745,251 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C15" s="7">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D15" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C17" s="7">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D17" s="2">
         <v>6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C18" s="7">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D18" s="2">
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C22" s="7">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D22" s="2">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C24" s="7">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D24" s="2">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D26" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C27" s="7">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D27" s="2">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C30" s="7">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D30" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C35" s="7">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D35" s="2">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C36" s="7">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D36" s="2">
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C37" s="7">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D37" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="7" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="2">
-        <f>AVERAGE(D4:D24)</f>
-        <v>5.8222222222222217E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="7" t="s">
+      <c r="D40" s="2">
+        <f>AVERAGE(D2:D39)</f>
+        <v>5.904761904761904E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="2">
-        <f>MEDIAN(D4:D24)</f>
-        <v>4.2000000000000006E-3</v>
+      <c r="D41" s="2">
+        <f>MEDIAN(D2:D39)</f>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E23">
-    <sortCondition ref="A4:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E37">
+    <sortCondition ref="A4:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD20AF5-CC80-AC4E-9CDE-3B89E3ABA842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50650E8F-3D16-6542-9DAA-EC32B4BE372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -583,7 +583,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,7 +699,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -730,6 +730,16 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
+      <c r="C10" s="7">
+        <f>417.8/86400</f>
+        <v>4.8356481481481479E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -747,6 +757,9 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -764,6 +777,9 @@
       <c r="A14" t="s">
         <v>35</v>
       </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -784,6 +800,9 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -813,16 +832,25 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -840,6 +868,9 @@
       <c r="A23" t="s">
         <v>40</v>
       </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -856,6 +887,9 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -890,11 +924,17 @@
       <c r="A28" t="s">
         <v>42</v>
       </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -912,23 +952,35 @@
       <c r="A31" t="s">
         <v>44</v>
       </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -940,7 +992,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -952,7 +1004,7 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -964,27 +1016,35 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.904761904761904E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.9363636363636363E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.3E-3</v>
+        <v>4.5500000000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50650E8F-3D16-6542-9DAA-EC32B4BE372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83952A6-9835-664D-A31C-C9866B9FB562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -580,10 +580,10 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,9 +737,6 @@
       <c r="D10" s="2">
         <v>6.6E-3</v>
       </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -756,6 +753,13 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
+      </c>
+      <c r="C12" s="7">
+        <f>522.4/86400</f>
+        <v>6.0462962962962961E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -1035,7 +1039,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.9363636363636363E-3</v>
+        <v>5.747826086956522E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1044,7 +1048,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.5500000000000002E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83952A6-9835-664D-A31C-C9866B9FB562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884FB430-08CD-3E40-8F36-9BF0D239C523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -583,7 +583,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,7 +762,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -780,6 +780,13 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
+      </c>
+      <c r="C14" s="7">
+        <f>446.2/86400</f>
+        <v>5.1643518518518514E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.9E-3</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -1039,7 +1046,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.747826086956522E-3</v>
+        <v>5.5874999999999996E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1048,7 +1055,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.3E-3</v>
+        <v>4.2000000000000006E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884FB430-08CD-3E40-8F36-9BF0D239C523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED57FB-2C98-6542-A62A-11BF4DCC2D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -583,7 +583,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,6 +811,13 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
+      <c r="C16" s="7">
+        <f>414.9/86400</f>
+        <v>4.8020833333333327E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5.1999999999999998E-3</v>
+      </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1053,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.5874999999999996E-3</v>
+        <v>5.5719999999999988E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1055,7 +1062,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.2000000000000006E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED57FB-2C98-6542-A62A-11BF4DCC2D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0447768B-9CA2-354E-8720-2931AFCD1BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -580,10 +580,10 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,9 +788,6 @@
       <c r="D14" s="2">
         <v>1.9E-3</v>
       </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -818,9 +815,6 @@
       <c r="D16" s="2">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -849,6 +843,13 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
+      </c>
+      <c r="C19" s="7">
+        <f>494.7/86400</f>
+        <v>5.7256944444444447E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -1053,7 +1054,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.5719999999999988E-3</v>
+        <v>5.5423076923076919E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1062,7 +1063,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.3E-3</v>
+        <v>4.5500000000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0447768B-9CA2-354E-8720-2931AFCD1BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703B488F-9B1A-7C47-A093-5ABAEA4AAAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -113,9 +113,6 @@
     <t>FL</t>
   </si>
   <si>
-    <t>Convert tracts to blockgroups or blocks</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>WI</t>
+  </si>
+  <si>
+    <t>Converted tracts assignments to blocks assignments.</t>
   </si>
 </sst>
 </file>
@@ -580,10 +580,10 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +592,7 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -614,7 +614,7 @@
     </row>
     <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18">
@@ -627,7 +627,7 @@
     </row>
     <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="18">
@@ -638,7 +638,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -669,12 +669,12 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14">
@@ -688,7 +688,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14">
@@ -728,7 +728,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7">
         <f>417.8/86400</f>
@@ -752,7 +752,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7">
         <f>522.4/86400</f>
@@ -779,7 +779,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <f>446.2/86400</f>
@@ -806,7 +806,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7">
         <f>414.9/86400</f>
@@ -842,7 +842,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <f>494.7/86400</f>
@@ -851,24 +851,28 @@
       <c r="D19" s="2">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C20" s="7">
+        <f>527.5/86400</f>
+        <v>6.1053240740740738E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -885,10 +889,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -905,10 +909,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -941,23 +945,23 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <f>410.2/86400</f>
@@ -969,34 +973,34 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1037,10 +1041,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1054,7 +1058,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.5423076923076919E-3</v>
+        <v>5.4518518518518518E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1063,7 +1067,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.5500000000000002E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703B488F-9B1A-7C47-A093-5ABAEA4AAAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F09A6-57F5-3545-829D-D921C74DE4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -583,7 +583,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,13 +863,17 @@
       <c r="D20" s="2">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
+      </c>
+      <c r="C21" s="7">
+        <f>390.7/86400</f>
+        <v>4.5219907407407405E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1058,7 +1062,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.4518518518518518E-3</v>
+        <v>5.4285714285714293E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,7 +1071,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.3E-3</v>
+        <v>4.5500000000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F09A6-57F5-3545-829D-D921C74DE4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19569C2-B328-334E-8F62-30BF769A2C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -580,10 +580,10 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,6 +895,13 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
+      <c r="C23" s="7">
+        <f>376.1/86400</f>
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.7000000000000001E-3</v>
+      </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
@@ -1062,7 +1069,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.4285714285714293E-3</v>
+        <v>5.3344827586206895E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1071,7 +1078,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.5500000000000002E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19569C2-B328-334E-8F62-30BF769A2C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE691A-225F-4346-B09A-18DDD1348DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -583,7 +583,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,9 +875,6 @@
       <c r="D21" s="2">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -903,7 +900,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -921,6 +918,13 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
+      </c>
+      <c r="C25" s="7">
+        <f>394.1/86400</f>
+        <v>4.5613425925925925E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -1069,7 +1073,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.3344827586206895E-3</v>
+        <v>5.1833333333333332E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1078,7 +1082,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.3E-3</v>
+        <v>4.2000000000000006E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE691A-225F-4346-B09A-18DDD1348DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035D4667-EB88-CD49-B26A-B7169472A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="20940" yWindow="10800" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -583,7 +583,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,9 +926,6 @@
       <c r="D25" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
@@ -962,6 +959,13 @@
       <c r="A28" t="s">
         <v>41</v>
       </c>
+      <c r="C28" s="7">
+        <f>852.8/86400</f>
+        <v>9.8703703703703696E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.8E-3</v>
+      </c>
       <c r="E28" t="s">
         <v>28</v>
       </c>
@@ -1073,7 +1077,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.1833333333333332E-3</v>
+        <v>5.0741935483870964E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,7 +1086,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.2000000000000006E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035D4667-EB88-CD49-B26A-B7169472A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C9F2DA-F515-9941-9079-E8F4EE09209A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10800" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -583,7 +583,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,6 +974,13 @@
       <c r="A29" t="s">
         <v>42</v>
       </c>
+      <c r="C29" s="7">
+        <f>393/86400</f>
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +1084,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.0741935483870964E-3</v>
+        <v>5.071875E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1086,7 +1093,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.1000000000000003E-3</v>
+        <v>4.2000000000000006E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C9F2DA-F515-9941-9079-E8F4EE09209A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC4727-BD20-FF4A-A73C-1AE50D4269D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10800" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -580,10 +580,10 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,9 +966,6 @@
       <c r="D28" s="2">
         <v>1.8E-3</v>
       </c>
-      <c r="E28" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -981,9 +978,6 @@
       <c r="D29" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E29" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1001,6 +995,13 @@
       <c r="A31" t="s">
         <v>43</v>
       </c>
+      <c r="C31" s="7">
+        <f>894.9/86400</f>
+        <v>1.0357638888888888E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5.3E-3</v>
+      </c>
       <c r="E31" t="s">
         <v>28</v>
       </c>
@@ -1084,7 +1085,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.071875E-3</v>
+        <v>5.0787878787878788E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1093,7 +1094,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.2000000000000006E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC4727-BD20-FF4A-A73C-1AE50D4269D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45345E34-C13F-7B40-B72B-F12327A1103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10800" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -583,7 +583,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,14 +1002,18 @@
       <c r="D31" s="2">
         <v>5.3E-3</v>
       </c>
-      <c r="E31" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
+      <c r="C32" s="7">
+        <f>414.8/86400</f>
+        <v>4.8009259259259264E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4.1999999999999997E-3</v>
+      </c>
       <c r="E32" t="s">
         <v>28</v>
       </c>
@@ -1085,7 +1089,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.0787878787878788E-3</v>
+        <v>5.0529411764705882E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1094,7 +1098,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.3E-3</v>
+        <v>4.2500000000000003E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45345E34-C13F-7B40-B72B-F12327A1103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE86B30-26A4-A84A-8654-20B85618542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10800" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -580,10 +580,10 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,14 +1014,18 @@
       <c r="D32" s="2">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E32" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
+      <c r="C33" s="7">
+        <f>371.6/86400</f>
+        <v>4.3009259259259259E-3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7.9000000000000008E-3</v>
+      </c>
       <c r="E33" t="s">
         <v>28</v>
       </c>
@@ -1089,7 +1093,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.0529411764705882E-3</v>
+        <v>5.1342857142857145E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1098,7 +1102,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.2500000000000003E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE86B30-26A4-A84A-8654-20B85618542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0010C342-7D6C-3746-AF3B-F88153A74386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="10800" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -583,7 +583,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,9 +1026,6 @@
       <c r="D33" s="2">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1078,6 +1075,13 @@
       <c r="A38" t="s">
         <v>47</v>
       </c>
+      <c r="C38" s="7">
+        <f>575.8/86400</f>
+        <v>6.664351851851851E-3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
       <c r="E38" t="s">
         <v>28</v>
       </c>
@@ -1093,7 +1097,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.1342857142857145E-3</v>
+        <v>5.0111111111111111E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1102,7 +1106,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.3E-3</v>
+        <v>4.2500000000000003E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0010C342-7D6C-3746-AF3B-F88153A74386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009EB34A-657A-E446-9D2F-75393DC8E067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>XX</t>
   </si>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -251,18 +251,6 @@
     </xf>
     <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +568,10 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,32 +600,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18">
+      <c r="C2" s="7">
         <f>398.2/86400</f>
         <v>4.6087962962962957E-3</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18">
+      <c r="C3" s="7">
         <f>414.2/86400</f>
         <v>4.7939814814814815E-3</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="2">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -657,48 +643,44 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14">
+      <c r="C5" s="7">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="2">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14">
+      <c r="C6" s="7">
         <f>448/86400</f>
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="2">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14">
+      <c r="C7" s="7">
         <f>362.9/86400</f>
         <v>4.200231481481481E-3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="2">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1031,6 +1013,13 @@
       <c r="A34" t="s">
         <v>46</v>
       </c>
+      <c r="C34" s="7">
+        <f>3033/86400</f>
+        <v>3.5104166666666665E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.14E-2</v>
+      </c>
       <c r="E34" t="s">
         <v>28</v>
       </c>
@@ -1082,9 +1071,6 @@
       <c r="D38" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
@@ -1097,7 +1083,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.0111111111111111E-3</v>
+        <v>5.1837837837837835E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1106,7 +1092,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.2500000000000003E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009EB34A-657A-E446-9D2F-75393DC8E067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8270BEA-7193-8145-BC56-6D46F3E4C5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>XX</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>AR</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>Much lower in DRA: 0.04%</t>
@@ -568,10 +565,10 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +621,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -654,12 +651,12 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <f>448/86400</f>
@@ -671,7 +668,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
         <f>362.9/86400</f>
@@ -710,7 +707,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7">
         <f>417.8/86400</f>
@@ -734,7 +731,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <f>522.4/86400</f>
@@ -761,7 +758,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7">
         <f>446.2/86400</f>
@@ -788,7 +785,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7">
         <f>414.9/86400</f>
@@ -824,7 +821,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <f>494.7/86400</f>
@@ -836,7 +833,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
         <f>527.5/86400</f>
@@ -848,7 +845,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7">
         <f>390.7/86400</f>
@@ -872,7 +869,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7">
         <f>376.1/86400</f>
@@ -899,7 +896,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <f>394.1/86400</f>
@@ -939,7 +936,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <f>852.8/86400</f>
@@ -951,7 +948,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7">
         <f>393/86400</f>
@@ -975,7 +972,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="7">
         <f>894.9/86400</f>
@@ -987,7 +984,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7">
         <f>414.8/86400</f>
@@ -999,7 +996,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="7">
         <f>371.6/86400</f>
@@ -1011,7 +1008,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7">
         <f>3033/86400</f>
@@ -1020,9 +1017,6 @@
       <c r="D34" s="2">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1062,7 +1056,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <f>575.8/86400</f>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8270BEA-7193-8145-BC56-6D46F3E4C5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA51727C-6B09-ED46-8E52-BC5A5A1E38FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -565,10 +565,10 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,7 +606,7 @@
         <v>4.6087962962962957E-3</v>
       </c>
       <c r="D2" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.1837837837837835E-3</v>
+        <v>5.3324324324324325E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.3E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA51727C-6B09-ED46-8E52-BC5A5A1E38FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46BE8E6-CA55-4743-9610-3246A82E3D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>XX</t>
   </si>
@@ -122,9 +122,6 @@
     <t>AR</t>
   </si>
   <si>
-    <t>Much lower in DRA: 0.04%</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Converted tracts assignments to blocks assignments.</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -562,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,10 +577,11 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,11 +594,14 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -608,8 +612,14 @@
       <c r="D2" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -618,13 +628,16 @@
         <v>4.7939814814814815E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -638,8 +651,14 @@
       <c r="D4" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -650,13 +669,16 @@
       <c r="D5" s="2">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <f>448/86400</f>
@@ -665,10 +687,13 @@
       <c r="D6" s="2">
         <v>4.1000000000000003E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <f>362.9/86400</f>
@@ -677,11 +702,14 @@
       <c r="D7" s="2">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -692,8 +720,11 @@
       <c r="D8" s="2">
         <v>7.9000000000000008E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -704,10 +735,13 @@
       <c r="D9" s="2">
         <v>1.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <f>417.8/86400</f>
@@ -716,8 +750,11 @@
       <c r="D10" s="2">
         <v>6.6E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -728,10 +765,13 @@
       <c r="D11" s="2">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
         <f>522.4/86400</f>
@@ -740,11 +780,14 @@
       <c r="D12" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -755,10 +798,13 @@
       <c r="D13" s="2">
         <v>3.0999999999999999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <f>446.2/86400</f>
@@ -767,8 +813,11 @@
       <c r="D14" s="2">
         <v>1.9E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -779,13 +828,16 @@
       <c r="D15" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="7">
         <f>414.9/86400</f>
@@ -794,8 +846,11 @@
       <c r="D16" s="2">
         <v>5.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -806,8 +861,11 @@
       <c r="D17" s="2">
         <v>6.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -818,10 +876,13 @@
       <c r="D18" s="2">
         <v>4.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <f>494.7/86400</f>
@@ -830,10 +891,13 @@
       <c r="D19" s="2">
         <v>4.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7">
         <f>527.5/86400</f>
@@ -842,10 +906,13 @@
       <c r="D20" s="2">
         <v>3.0999999999999999E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7">
         <f>390.7/86400</f>
@@ -854,8 +921,11 @@
       <c r="D21" s="2">
         <v>4.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -866,10 +936,13 @@
       <c r="D22" s="2">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7">
         <f>376.1/86400</f>
@@ -878,11 +951,14 @@
       <c r="D23" s="2">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -893,10 +969,13 @@
       <c r="D24" s="2">
         <v>2.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <f>394.1/86400</f>
@@ -905,8 +984,11 @@
       <c r="D25" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
@@ -918,11 +1000,14 @@
       <c r="D26" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -933,10 +1018,13 @@
       <c r="D27" s="2">
         <v>4.3E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <f>852.8/86400</f>
@@ -945,10 +1033,13 @@
       <c r="D28" s="2">
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="7">
         <f>393/86400</f>
@@ -957,8 +1048,11 @@
       <c r="D29" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -969,10 +1063,13 @@
       <c r="D30" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7">
         <f>894.9/86400</f>
@@ -981,10 +1078,13 @@
       <c r="D31" s="2">
         <v>5.3E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7">
         <f>414.8/86400</f>
@@ -993,10 +1093,13 @@
       <c r="D32" s="2">
         <v>4.1999999999999997E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="7">
         <f>371.6/86400</f>
@@ -1005,10 +1108,13 @@
       <c r="D33" s="2">
         <v>7.9000000000000008E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="7">
         <f>3033/86400</f>
@@ -1017,8 +1123,11 @@
       <c r="D34" s="2">
         <v>1.14E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1029,8 +1138,11 @@
       <c r="D35" s="2">
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1041,8 +1153,11 @@
       <c r="D36" s="2">
         <v>8.6E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1053,10 +1168,13 @@
       <c r="D37" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <f>575.8/86400</f>
@@ -1065,22 +1183,25 @@
       <c r="D38" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
+      <c r="E38" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.3324324324324325E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.3675675675675686E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
         <v>15</v>
       </c>
@@ -1090,7 +1211,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F37">
     <sortCondition ref="A4:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46BE8E6-CA55-4743-9610-3246A82E3D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FADEA2-49F9-4741-9047-80DDD2DEBA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -203,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -243,11 +249,18 @@
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +581,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,54 +665,57 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="13">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16">
         <f>448/86400</f>
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="D6" s="2">
-        <v>4.1000000000000003E-3</v>
+      <c r="D6" s="13">
+        <v>3.3E-3</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
         <f>362.9/86400</f>
         <v>4.200231481481481E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="12">
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -710,14 +726,15 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="12">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -725,14 +742,15 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="12">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -740,14 +758,15 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="12">
         <v>6.6E-3</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -755,14 +774,15 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="12">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -770,14 +790,15 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="12">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -788,14 +809,15 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="12">
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -803,14 +825,15 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="12">
         <v>1.9E-3</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -818,14 +841,15 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="12">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -836,14 +860,15 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="12">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -851,14 +876,15 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="12">
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -866,14 +892,15 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -881,14 +908,15 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -896,14 +924,15 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="7">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="12">
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -911,14 +940,15 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -926,14 +956,15 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="12">
         <v>1.2E-2</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -941,14 +972,15 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="12">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -959,14 +991,15 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="7">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="12">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -974,14 +1007,15 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="7">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="12">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -989,18 +1023,18 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -1008,14 +1042,15 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="7">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="12">
         <v>4.3E-3</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1023,14 +1058,15 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="7">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="12">
         <v>1.8E-3</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1038,14 +1074,15 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="7">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1053,14 +1090,15 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="7">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1068,14 +1106,15 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="7">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="12">
         <v>5.3E-3</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1083,14 +1122,15 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="7">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="12">
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1098,14 +1138,15 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="7">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="12">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1113,14 +1154,15 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="7">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="12">
         <v>1.14E-2</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1128,14 +1170,15 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="7">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="12">
         <v>1.8E-3</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1143,14 +1186,15 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="7">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="12">
         <v>8.6E-3</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1158,14 +1202,15 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="7">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="12">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1173,14 +1218,15 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="7">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11">
         <f>575.8/86400</f>
         <v>6.664351851851851E-3</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="12">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1198,7 +1244,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.3675675675675686E-3</v>
+        <v>5.3459459459459461E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FADEA2-49F9-4741-9047-80DDD2DEBA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3345EF6-82FE-2248-8CC0-C71932374456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -581,7 +581,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,35 +707,35 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16">
         <f>362.9/86400</f>
         <v>4.200231481481481E-3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="12">
-        <v>7.9000000000000008E-3</v>
+      <c r="D8" s="13">
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>47</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.3459459459459461E-3</v>
+        <v>5.3891891891891894E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3345EF6-82FE-2248-8CC0-C71932374456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EFCF60-DD12-F54D-A1B5-91A3EFB7FF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -581,7 +581,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,16 +742,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="12">
-        <v>1.0500000000000001E-2</v>
+      <c r="D9" s="13">
+        <v>5.3E-3</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>47</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.3891891891891894E-3</v>
+        <v>5.2486486486486485E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EFCF60-DD12-F54D-A1B5-91A3EFB7FF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0014EA-175B-FB43-B095-35875D0B7332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>XX</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t># maps</t>
+  </si>
+  <si>
+    <t># districts</t>
+  </si>
+  <si>
+    <t># precincts</t>
   </si>
 </sst>
 </file>
@@ -235,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,6 +270,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,13 +588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,11 +603,14 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,14 +623,23 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -625,14 +650,14 @@
       <c r="D2" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -643,14 +668,14 @@
       <c r="D3" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -664,14 +689,14 @@
       <c r="D4" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
@@ -683,14 +708,17 @@
       <c r="D5" s="13">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
@@ -702,11 +730,14 @@
       <c r="D6" s="13">
         <v>3.3E-3</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -718,14 +749,17 @@
       <c r="D7" s="13">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -737,11 +771,14 @@
       <c r="D8" s="13">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
@@ -753,27 +790,35 @@
       <c r="D9" s="13">
         <v>5.3E-3</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="12">
-        <v>6.6E-3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="13">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="E10" s="19">
+        <v>100</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -785,11 +830,14 @@
       <c r="D11" s="12">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
@@ -801,14 +849,17 @@
       <c r="D12" s="12">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -820,11 +871,14 @@
       <c r="D13" s="12">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -836,11 +890,14 @@
       <c r="D14" s="12">
         <v>1.9E-3</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -852,14 +909,17 @@
       <c r="D15" s="12">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -871,11 +931,14 @@
       <c r="D16" s="12">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -887,11 +950,14 @@
       <c r="D17" s="12">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -903,11 +969,14 @@
       <c r="D18" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -919,11 +988,14 @@
       <c r="D19" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
@@ -935,11 +1007,14 @@
       <c r="D20" s="12">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
@@ -951,11 +1026,14 @@
       <c r="D21" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
@@ -967,11 +1045,14 @@
       <c r="D22" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
@@ -983,14 +1064,17 @@
       <c r="D23" s="12">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
@@ -1002,11 +1086,14 @@
       <c r="D24" s="12">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
@@ -1018,11 +1105,14 @@
       <c r="D25" s="12">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
@@ -1034,14 +1124,17 @@
       <c r="D26" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
@@ -1053,11 +1146,14 @@
       <c r="D27" s="12">
         <v>4.3E-3</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
@@ -1069,11 +1165,14 @@
       <c r="D28" s="12">
         <v>1.8E-3</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>40</v>
       </c>
@@ -1085,11 +1184,14 @@
       <c r="D29" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
@@ -1101,11 +1203,14 @@
       <c r="D30" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>41</v>
       </c>
@@ -1117,11 +1222,14 @@
       <c r="D31" s="12">
         <v>5.3E-3</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
@@ -1133,11 +1241,14 @@
       <c r="D32" s="12">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
@@ -1149,11 +1260,14 @@
       <c r="D33" s="12">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>44</v>
       </c>
@@ -1165,11 +1279,14 @@
       <c r="D34" s="12">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>20</v>
       </c>
@@ -1181,11 +1298,14 @@
       <c r="D35" s="12">
         <v>1.8E-3</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
@@ -1197,11 +1317,14 @@
       <c r="D36" s="12">
         <v>8.6E-3</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>9</v>
       </c>
@@ -1213,11 +1336,14 @@
       <c r="D37" s="12">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>45</v>
       </c>
@@ -1229,25 +1355,28 @@
       <c r="D38" s="12">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2486486486486485E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5.2972972972972982E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1386,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I37">
     <sortCondition ref="A4:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0014EA-175B-FB43-B095-35875D0B7332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F9F3B-5815-2740-B189-33190BCA56D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -270,10 +270,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,9 +601,9 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -623,13 +621,13 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -708,9 +706,6 @@
       <c r="D5" s="13">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
       <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
@@ -730,9 +725,6 @@
       <c r="D6" s="13">
         <v>3.3E-3</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
       <c r="H6" s="2" t="s">
         <v>47</v>
       </c>
@@ -749,9 +741,6 @@
       <c r="D7" s="13">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
       <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
@@ -771,9 +760,6 @@
       <c r="D8" s="13">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
       <c r="H8" s="2" t="s">
         <v>47</v>
       </c>
@@ -790,9 +776,6 @@
       <c r="D9" s="13">
         <v>5.3E-3</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
       <c r="H9" s="2" t="s">
         <v>47</v>
       </c>
@@ -809,30 +792,28 @@
       <c r="D10" s="13">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>100</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
       <c r="H10" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="12">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="13">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E11" s="17">
+        <v>100</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>47</v>
       </c>
@@ -849,9 +830,6 @@
       <c r="D12" s="12">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
       <c r="H12" s="2" t="s">
         <v>47</v>
       </c>
@@ -871,9 +849,6 @@
       <c r="D13" s="12">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
       <c r="H13" s="2" t="s">
         <v>47</v>
       </c>
@@ -890,9 +865,6 @@
       <c r="D14" s="12">
         <v>1.9E-3</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
       <c r="H14" s="2" t="s">
         <v>47</v>
       </c>
@@ -909,9 +881,6 @@
       <c r="D15" s="12">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
       <c r="H15" s="2" t="s">
         <v>47</v>
       </c>
@@ -931,9 +900,6 @@
       <c r="D16" s="12">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
       <c r="H16" s="2" t="s">
         <v>47</v>
       </c>
@@ -950,9 +916,6 @@
       <c r="D17" s="12">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
       <c r="H17" s="2" t="s">
         <v>47</v>
       </c>
@@ -969,9 +932,6 @@
       <c r="D18" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
       <c r="H18" s="2" t="s">
         <v>47</v>
       </c>
@@ -988,9 +948,6 @@
       <c r="D19" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
       <c r="H19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1007,9 +964,6 @@
       <c r="D20" s="12">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
       <c r="H20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1026,9 +980,6 @@
       <c r="D21" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
       <c r="H21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1045,9 +996,6 @@
       <c r="D22" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
       <c r="H22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1064,9 +1012,6 @@
       <c r="D23" s="12">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
       <c r="H23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1086,9 +1031,6 @@
       <c r="D24" s="12">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
       <c r="H24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1105,9 +1047,6 @@
       <c r="D25" s="12">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
       <c r="H25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1124,9 +1063,6 @@
       <c r="D26" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
       <c r="H26" s="13" t="s">
         <v>47</v>
       </c>
@@ -1146,9 +1082,6 @@
       <c r="D27" s="12">
         <v>4.3E-3</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
       <c r="H27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1165,9 +1098,6 @@
       <c r="D28" s="12">
         <v>1.8E-3</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
       <c r="H28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1184,9 +1114,6 @@
       <c r="D29" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
       <c r="H29" s="2" t="s">
         <v>47</v>
       </c>
@@ -1203,9 +1130,6 @@
       <c r="D30" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
       <c r="H30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1222,9 +1146,6 @@
       <c r="D31" s="12">
         <v>5.3E-3</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
       <c r="H31" s="2" t="s">
         <v>47</v>
       </c>
@@ -1241,9 +1162,6 @@
       <c r="D32" s="12">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
       <c r="H32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1260,9 +1178,6 @@
       <c r="D33" s="12">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
       <c r="H33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1279,9 +1194,6 @@
       <c r="D34" s="12">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
       <c r="H34" s="2" t="s">
         <v>47</v>
       </c>
@@ -1298,9 +1210,6 @@
       <c r="D35" s="12">
         <v>1.8E-3</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
       <c r="H35" s="2" t="s">
         <v>47</v>
       </c>
@@ -1317,9 +1226,6 @@
       <c r="D36" s="12">
         <v>8.6E-3</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
       <c r="H36" s="2" t="s">
         <v>47</v>
       </c>
@@ -1336,9 +1242,6 @@
       <c r="D37" s="12">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
       <c r="H37" s="2" t="s">
         <v>47</v>
       </c>
@@ -1355,9 +1258,6 @@
       <c r="D38" s="12">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
       <c r="H38" s="2" t="s">
         <v>47</v>
       </c>
@@ -1373,7 +1273,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2972972972972982E-3</v>
+        <v>5.2513513513513512E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F9F3B-5815-2740-B189-33190BCA56D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6986E585-8A39-3E47-8EF0-F05FACAA86ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,19 +819,22 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>1.6000000000000001E-3</v>
       </c>
+      <c r="E12" s="17">
+        <v>93</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6986E585-8A39-3E47-8EF0-F05FACAA86ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661723E3-058D-6E43-95AC-5F51CB48ACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,16 +841,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="12">
-        <v>3.0999999999999999E-3</v>
+      <c r="D13" s="13">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E13" s="17">
+        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>47</v>
@@ -1276,7 +1279,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2513513513513512E-3</v>
+        <v>5.1918918918918925E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661723E3-058D-6E43-95AC-5F51CB48ACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622BA335-E924-294D-A3FA-D623D323D134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="A13:D13"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,16 +860,19 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="12">
-        <v>1.9E-3</v>
+      <c r="D14" s="13">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E14" s="17">
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>47</v>
@@ -1279,7 +1282,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.1918918918918925E-3</v>
+        <v>5.178378378378379E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622BA335-E924-294D-A3FA-D623D323D134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F5A527-1492-CC49-947A-A71786EF5612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="A14:D14"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,16 +879,19 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D15" s="12">
-        <v>1.6999999999999999E-3</v>
+      <c r="D15" s="13">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E15" s="17">
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>47</v>
@@ -909,6 +912,10 @@
       <c r="D16" s="12">
         <v>5.1999999999999998E-3</v>
       </c>
+      <c r="E16" s="17">
+        <f>E15</f>
+        <v>100</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>47</v>
       </c>
@@ -925,6 +932,10 @@
       <c r="D17" s="12">
         <v>6.1999999999999998E-3</v>
       </c>
+      <c r="E17" s="17">
+        <f t="shared" ref="E17:E38" si="0">E16</f>
+        <v>100</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>47</v>
       </c>
@@ -941,6 +952,10 @@
       <c r="D18" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
+      <c r="E18" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>47</v>
       </c>
@@ -957,6 +972,10 @@
       <c r="D19" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
+      <c r="E19" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H19" s="2" t="s">
         <v>47</v>
       </c>
@@ -973,6 +992,10 @@
       <c r="D20" s="12">
         <v>3.0999999999999999E-3</v>
       </c>
+      <c r="E20" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>47</v>
       </c>
@@ -989,6 +1012,10 @@
       <c r="D21" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
+      <c r="E21" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1005,6 +1032,10 @@
       <c r="D22" s="12">
         <v>1.2E-2</v>
       </c>
+      <c r="E22" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1021,6 +1052,10 @@
       <c r="D23" s="12">
         <v>2.7000000000000001E-3</v>
       </c>
+      <c r="E23" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1040,6 +1075,10 @@
       <c r="D24" s="12">
         <v>2.8999999999999998E-3</v>
       </c>
+      <c r="E24" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1056,6 +1095,10 @@
       <c r="D25" s="12">
         <v>8.0000000000000004E-4</v>
       </c>
+      <c r="E25" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1072,6 +1115,10 @@
       <c r="D26" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
+      <c r="E26" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H26" s="13" t="s">
         <v>47</v>
       </c>
@@ -1091,6 +1138,10 @@
       <c r="D27" s="12">
         <v>4.3E-3</v>
       </c>
+      <c r="E27" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1107,6 +1158,10 @@
       <c r="D28" s="12">
         <v>1.8E-3</v>
       </c>
+      <c r="E28" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1123,6 +1178,10 @@
       <c r="D29" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="E29" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H29" s="2" t="s">
         <v>47</v>
       </c>
@@ -1139,6 +1198,10 @@
       <c r="D30" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="E30" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1155,6 +1218,10 @@
       <c r="D31" s="12">
         <v>5.3E-3</v>
       </c>
+      <c r="E31" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H31" s="2" t="s">
         <v>47</v>
       </c>
@@ -1171,6 +1238,10 @@
       <c r="D32" s="12">
         <v>4.1999999999999997E-3</v>
       </c>
+      <c r="E32" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1187,6 +1258,10 @@
       <c r="D33" s="12">
         <v>7.9000000000000008E-3</v>
       </c>
+      <c r="E33" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1203,6 +1278,10 @@
       <c r="D34" s="12">
         <v>1.14E-2</v>
       </c>
+      <c r="E34" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H34" s="2" t="s">
         <v>47</v>
       </c>
@@ -1219,6 +1298,10 @@
       <c r="D35" s="12">
         <v>1.8E-3</v>
       </c>
+      <c r="E35" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H35" s="2" t="s">
         <v>47</v>
       </c>
@@ -1235,6 +1318,10 @@
       <c r="D36" s="12">
         <v>8.6E-3</v>
       </c>
+      <c r="E36" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H36" s="2" t="s">
         <v>47</v>
       </c>
@@ -1251,6 +1338,10 @@
       <c r="D37" s="12">
         <v>8.9999999999999998E-4</v>
       </c>
+      <c r="E37" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H37" s="2" t="s">
         <v>47</v>
       </c>
@@ -1267,6 +1358,10 @@
       <c r="D38" s="12">
         <v>6.9999999999999999E-4</v>
       </c>
+      <c r="E38" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="H38" s="2" t="s">
         <v>47</v>
       </c>
@@ -1282,7 +1377,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.178378378378379E-3</v>
+        <v>5.1675675675675681E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F5A527-1492-CC49-947A-A71786EF5612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC3E3D-A3A5-8444-A1FA-251D783716E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,20 +901,19 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="12">
-        <v>5.1999999999999998E-3</v>
+      <c r="D16" s="13">
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="E16" s="17">
-        <f>E15</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>47</v>
@@ -933,7 +932,6 @@
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="E17" s="17">
-        <f t="shared" ref="E17:E38" si="0">E16</f>
         <v>100</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -953,7 +951,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E17:E38" si="0">E17</f>
         <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1377,7 +1375,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.1675675675675681E-3</v>
+        <v>5.2486486486486485E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC3E3D-A3A5-8444-A1FA-251D783716E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E4CE9-AF10-4D47-B1EC-C241964B16E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,16 +920,16 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="12">
-        <v>6.1999999999999998E-3</v>
+      <c r="D17" s="13">
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E17" s="17">
         <v>100</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2486486486486485E-3</v>
+        <v>5.3000000000000009E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E4CE9-AF10-4D47-B1EC-C241964B16E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CA71B9-1105-8447-9692-756AD6B51811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,20 +939,19 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="12">
-        <v>4.7999999999999996E-3</v>
+      <c r="D18" s="13">
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" ref="E17:E38" si="0">E17</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>47</v>
@@ -971,7 +970,6 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E19" s="17">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -991,7 +989,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="E20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E17:E38" si="0">E19</f>
         <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1375,7 +1373,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.3000000000000009E-3</v>
+        <v>5.3027027027027027E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CA71B9-1105-8447-9692-756AD6B51811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81379F91-1CE6-7749-8AF9-00888DD6FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,19 +958,19 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="12">
-        <v>4.7999999999999996E-3</v>
+      <c r="D19" s="13">
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="E19" s="17">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>47</v>
@@ -989,7 +989,6 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="E20" s="17">
-        <f t="shared" ref="E17:E38" si="0">E19</f>
         <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1009,7 +1008,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E17:E38" si="0">E20</f>
         <v>100</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1373,7 +1372,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.3027027027027027E-3</v>
+        <v>5.3135135135135144E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81379F91-1CE6-7749-8AF9-00888DD6FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89654317-5C64-6348-A61F-3ED12E80C205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="A19:D19"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,19 +977,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="12">
-        <v>3.0999999999999999E-3</v>
+      <c r="D20" s="13">
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="E20" s="17">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>47</v>
@@ -1008,7 +1008,6 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E21" s="17">
-        <f t="shared" ref="E17:E38" si="0">E20</f>
         <v>100</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1028,7 +1027,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="E22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E17:E38" si="0">E21</f>
         <v>100</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1372,7 +1371,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.3135135135135144E-3</v>
+        <v>5.4216216216216211E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1381,7 +1380,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89654317-5C64-6348-A61F-3ED12E80C205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8537449E-468C-7B41-A732-9FE02855CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,16 +996,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="12">
-        <v>4.7999999999999996E-3</v>
+      <c r="D21" s="13">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E21" s="17">
         <v>100</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.4216216216216211E-3</v>
+        <v>5.3351351351351353E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8537449E-468C-7B41-A732-9FE02855CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0F360-9215-AA43-B0B9-E6856E8FA8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,16 +1015,16 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="12">
-        <v>1.2E-2</v>
+      <c r="D22" s="13">
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="E22" s="17">
         <f t="shared" ref="E17:E38" si="0">E21</f>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.3351351351351353E-3</v>
+        <v>5.2567567567567558E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0F360-9215-AA43-B0B9-E6856E8FA8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B104FA6-969C-EE48-8B61-A41E56A0E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -589,10 +589,10 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,16 +1035,16 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="12">
-        <v>2.7000000000000001E-3</v>
+      <c r="D23" s="13">
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="E23" s="17">
         <f t="shared" si="0"/>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2567567567567558E-3</v>
+        <v>5.2702702702702693E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B104FA6-969C-EE48-8B61-A41E56A0E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC67630-838F-4541-99A5-E2294CC57D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -589,10 +589,10 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="A23:D23"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,20 +1058,19 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="12">
-        <v>2.8999999999999998E-3</v>
+      <c r="D24" s="13">
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="E24" s="17">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>47</v>
@@ -1090,7 +1089,6 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E25" s="17">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -1371,7 +1369,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2702702702702693E-3</v>
+        <v>5.2486486486486485E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC67630-838F-4541-99A5-E2294CC57D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26695153-76CD-2C46-BF13-E822DA9A8C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,16 +1077,16 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="12">
-        <v>8.0000000000000004E-4</v>
+      <c r="D25" s="13">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="E25" s="17">
         <v>100</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2486486486486485E-3</v>
+        <v>5.2729729729729729E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26695153-76CD-2C46-BF13-E822DA9A8C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C07BF3B-D966-4D4D-A2E0-83EA22BC3297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +258,11 @@
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +277,7 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,9 +607,9 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -621,13 +627,13 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -695,15 +701,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -714,15 +720,15 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19">
         <f>448/86400</f>
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="16">
         <v>3.3E-3</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -730,15 +736,15 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19">
         <f>362.9/86400</f>
         <v>4.200231481481481E-3</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="16">
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -749,15 +755,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="16">
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -765,15 +771,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="16">
         <v>5.3E-3</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -781,18 +787,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="16">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="20">
         <v>100</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -800,18 +806,18 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="16">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="20">
         <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -819,18 +825,18 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="16">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="20">
         <v>93</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -841,18 +847,18 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="16">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="20">
         <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -860,18 +866,18 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="16">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="20">
         <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -879,18 +885,18 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="16">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="20">
         <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -901,18 +907,18 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="16">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="20">
         <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -920,18 +926,18 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="16">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="20">
         <v>100</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -939,18 +945,18 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="16">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="20">
         <v>98</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -958,18 +964,18 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="20">
         <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -977,18 +983,18 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="16">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="20">
         <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -996,18 +1002,18 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="16">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="20">
         <v>100</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1015,18 +1021,18 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="16">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="20">
         <f t="shared" ref="E17:E38" si="0">E21</f>
         <v>100</v>
       </c>
@@ -1035,18 +1041,18 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="16">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1058,18 +1064,18 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="16">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="20">
         <v>99</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -1077,18 +1083,18 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="16">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="20">
         <v>100</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -1096,22 +1102,23 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E26" s="17">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H26" s="13" t="s">
+      <c r="E26" s="22">
+        <v>55</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="11" t="s">
         <v>47</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -1119,39 +1126,37 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D27" s="12">
-        <v>4.3E-3</v>
-      </c>
-      <c r="E27" s="17">
-        <f t="shared" si="0"/>
-        <v>100</v>
+      <c r="D27" s="16">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E27" s="20">
+        <v>80</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="15">
         <v>1.8E-3</v>
       </c>
-      <c r="E28" s="17">
-        <f t="shared" si="0"/>
+      <c r="E28" s="20">
         <v>100</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -1159,18 +1164,18 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1179,18 +1184,18 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1199,18 +1204,18 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="15">
         <v>5.3E-3</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1219,18 +1224,18 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="15">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1239,18 +1244,18 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="15">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1259,18 +1264,18 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="15">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1279,18 +1284,18 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="15">
         <v>1.8E-3</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1299,18 +1304,18 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="15">
         <v>8.6E-3</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1319,18 +1324,18 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="15">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1339,18 +1344,18 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14">
         <f>575.8/86400</f>
         <v>6.664351851851851E-3</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="15">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1369,7 +1374,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2729729729729729E-3</v>
+        <v>5.2810810810810811E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C07BF3B-D966-4D4D-A2E0-83EA22BC3297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBE7D6-2A56-6D4A-AD66-345FDDAD317D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,7 +1157,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="E28" s="20">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>47</v>
@@ -1175,10 +1175,6 @@
       <c r="D29" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E29" s="20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="H29" s="2" t="s">
         <v>47</v>
       </c>
@@ -1195,10 +1191,6 @@
       <c r="D30" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="H30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1215,10 +1207,6 @@
       <c r="D31" s="15">
         <v>5.3E-3</v>
       </c>
-      <c r="E31" s="20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="H31" s="2" t="s">
         <v>47</v>
       </c>
@@ -1235,10 +1223,6 @@
       <c r="D32" s="15">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E32" s="20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="H32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1255,10 +1239,6 @@
       <c r="D33" s="15">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="H33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1275,10 +1255,6 @@
       <c r="D34" s="15">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="H34" s="2" t="s">
         <v>47</v>
       </c>
@@ -1295,10 +1271,6 @@
       <c r="D35" s="15">
         <v>1.8E-3</v>
       </c>
-      <c r="E35" s="20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="H35" s="2" t="s">
         <v>47</v>
       </c>
@@ -1315,10 +1287,6 @@
       <c r="D36" s="15">
         <v>8.6E-3</v>
       </c>
-      <c r="E36" s="20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="H36" s="2" t="s">
         <v>47</v>
       </c>
@@ -1335,10 +1303,6 @@
       <c r="D37" s="15">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E37" s="20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="H37" s="2" t="s">
         <v>47</v>
       </c>
@@ -1354,10 +1318,6 @@
       </c>
       <c r="D38" s="15">
         <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="E38" s="20">
-        <f t="shared" si="0"/>
-        <v>100</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>47</v>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBE7D6-2A56-6D4A-AD66-345FDDAD317D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E16460B-7089-2645-A2EF-AC95EFDC6D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29:E38"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,16 +1145,16 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="15">
-        <v>1.8E-3</v>
+      <c r="D28" s="16">
+        <v>1.9E-3</v>
       </c>
       <c r="E28" s="20">
         <v>95</v>
@@ -1164,16 +1164,19 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="15">
-        <v>5.0000000000000001E-3</v>
+      <c r="D29" s="16">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E29" s="20">
+        <v>100</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>47</v>
@@ -1334,7 +1337,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2810810810810811E-3</v>
+        <v>5.2864864864864865E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E16460B-7089-2645-A2EF-AC95EFDC6D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C5264-238C-6844-8BFB-FC60285578A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,6 +1194,9 @@
       <c r="D30" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="E30" s="20">
+        <v>100</v>
+      </c>
       <c r="H30" s="2" t="s">
         <v>47</v>
       </c>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C5264-238C-6844-8BFB-FC60285578A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2C6DB-A4D5-FC40-B17E-DB1274802052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,15 +1183,15 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14">
+      <c r="B30" s="18"/>
+      <c r="C30" s="19">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="16">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E30" s="20">
@@ -1202,16 +1202,19 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="15">
-        <v>5.3E-3</v>
+      <c r="D31" s="16">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E31" s="20">
+        <v>100</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>47</v>
@@ -1340,7 +1343,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2864864864864865E-3</v>
+        <v>5.2324324324324323E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1349,7 +1352,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2C6DB-A4D5-FC40-B17E-DB1274802052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3123A20C-E0A1-0C4E-8A2C-C93D6F2099DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -1221,16 +1221,19 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="15">
-        <v>4.1999999999999997E-3</v>
+      <c r="D32" s="16">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E32" s="20">
+        <v>100</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>47</v>
@@ -1343,7 +1346,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2324324324324323E-3</v>
+        <v>5.1621621621621618E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3123A20C-E0A1-0C4E-8A2C-C93D6F2099DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5090C8-3E5C-AC4E-B5D3-2A72EF9C2437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,16 +1240,19 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="16">
         <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E33" s="20">
+        <v>85</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>47</v>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5090C8-3E5C-AC4E-B5D3-2A72EF9C2437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAF8D9D-F9A8-6043-AEE3-527DD742B6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,16 +1259,19 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="16">
         <v>1.14E-2</v>
+      </c>
+      <c r="E34" s="20">
+        <v>39</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>47</v>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAF8D9D-F9A8-6043-AEE3-527DD742B6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E4B0AC-F34E-D543-BF1C-FC09D475663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1278,16 +1278,19 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="15">
-        <v>1.8E-3</v>
+      <c r="D35" s="16">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E35" s="20">
+        <v>38</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>47</v>
@@ -1352,7 +1355,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.1621621621621618E-3</v>
+        <v>5.1567567567567555E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E4B0AC-F34E-D543-BF1C-FC09D475663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D664A29-1433-A846-AB4E-EBE32586B9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,6 +1324,9 @@
       <c r="D37" s="15">
         <v>8.9999999999999998E-4</v>
       </c>
+      <c r="E37" s="20">
+        <v>85</v>
+      </c>
       <c r="H37" s="2" t="s">
         <v>47</v>
       </c>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D664A29-1433-A846-AB4E-EBE32586B9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1D16A-02C1-884C-8BA2-5AE34661DDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1297,32 +1297,35 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="15">
-        <v>8.6E-3</v>
+      <c r="D36" s="16">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E36" s="20">
+        <v>91</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D37" s="15">
-        <v>8.9999999999999998E-4</v>
+      <c r="D37" s="16">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="E37" s="20">
         <v>85</v>
@@ -1358,7 +1361,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.1567567567567555E-3</v>
+        <v>5.1108108108108095E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1D16A-02C1-884C-8BA2-5AE34661DDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141C2609-F935-714B-B9E5-CD50C503879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -212,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +222,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -263,12 +257,6 @@
     </xf>
     <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -598,7 +586,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,9 +595,9 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -627,13 +615,13 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -701,15 +689,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="12">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -720,15 +708,15 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15">
         <f>448/86400</f>
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>3.3E-3</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -736,15 +724,15 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15">
         <f>362.9/86400</f>
         <v>4.200231481481481E-3</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -755,15 +743,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -771,15 +759,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="12">
         <v>5.3E-3</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -787,18 +775,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="12">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>100</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -806,18 +794,18 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="12">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -825,18 +813,18 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="12">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>93</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -847,18 +835,18 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="12">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -866,18 +854,18 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -885,18 +873,18 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="12">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="16">
         <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -907,18 +895,18 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="12">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -926,18 +914,18 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="12">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="16">
         <v>100</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -945,18 +933,18 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="12">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="16">
         <v>98</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -964,18 +952,18 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="12">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="16">
         <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -983,18 +971,18 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="12">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="16">
         <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1002,18 +990,18 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="12">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="16">
         <v>100</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1021,18 +1009,18 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="12">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="16">
         <f t="shared" ref="E17:E38" si="0">E21</f>
         <v>100</v>
       </c>
@@ -1041,18 +1029,18 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="12">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1064,18 +1052,18 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="12">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="16">
         <v>99</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -1083,18 +1071,18 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="12">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="16">
         <v>100</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -1113,11 +1101,11 @@
       <c r="D26" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="18">
         <v>55</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="11" t="s">
         <v>47</v>
       </c>
@@ -1126,18 +1114,18 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="12">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="16">
         <v>80</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -1145,18 +1133,18 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="12">
         <v>1.9E-3</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="16">
         <v>95</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -1164,18 +1152,18 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="12">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="16">
         <v>100</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -1183,18 +1171,18 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="16">
         <v>100</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -1202,18 +1190,18 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="12">
         <v>3.3E-3</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="16">
         <v>100</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -1221,18 +1209,18 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="12">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="16">
         <v>100</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -1240,18 +1228,18 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="12">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="16">
         <v>85</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -1259,18 +1247,18 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="12">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="16">
         <v>39</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -1278,18 +1266,18 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="12">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="16">
         <v>38</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -1297,18 +1285,18 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="12">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="16">
         <v>91</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -1316,18 +1304,18 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19">
+      <c r="B37" s="14"/>
+      <c r="C37" s="15">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="12">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="16">
         <v>85</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -1335,16 +1323,19 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15">
         <f>575.8/86400</f>
         <v>6.664351851851851E-3</v>
       </c>
-      <c r="D38" s="15">
-        <v>6.9999999999999999E-4</v>
+      <c r="D38" s="12">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E38" s="16">
+        <v>94</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>47</v>
@@ -1361,7 +1352,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.1108108108108095E-3</v>
+        <v>5.1270270270270257E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141C2609-F935-714B-B9E5-CD50C503879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FCABC0-0BD1-424A-98FF-B26EF069E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>XX</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t># precincts</t>
+  </si>
+  <si>
+    <t>Δ</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -257,15 +260,27 @@
     </xf>
     <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,14 +610,15 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,23 +631,26 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -642,14 +661,17 @@
       <c r="D2" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -660,14 +682,17 @@
       <c r="D3" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -681,415 +706,454 @@
       <c r="D4" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15">
+      <c r="C5" s="7">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="2">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15">
+      <c r="C6" s="7">
         <f>448/86400</f>
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="2">
         <v>3.3E-3</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="H6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15">
+      <c r="C7" s="7">
         <f>362.9/86400</f>
         <v>4.200231481481481E-3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="2">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15">
+      <c r="C8" s="7">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="H8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15">
+      <c r="C9" s="7">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="2">
         <v>5.3E-3</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="H9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15">
+      <c r="C10" s="7">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="2">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <v>100</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="H10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15">
+      <c r="C11" s="7">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <v>100</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="H11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15">
+      <c r="C12" s="7">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="12">
         <v>93</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15">
+      <c r="C13" s="7">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="12">
         <v>100</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="H13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15">
+      <c r="C14" s="7">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="12">
         <v>100</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="H14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15">
+      <c r="C15" s="7">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="12">
         <v>100</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15">
+      <c r="C16" s="7">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="12">
         <v>99</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="H16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15">
+      <c r="C17" s="7">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="12">
         <v>100</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="H17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15">
+      <c r="C18" s="7">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="2">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="12">
         <v>98</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="H18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15">
+      <c r="C19" s="7">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="2">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="12">
         <v>98</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="H19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15">
+      <c r="C20" s="7">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="2">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="12">
         <v>97</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="H20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15">
+      <c r="C21" s="7">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="12">
         <v>100</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="H21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15">
+      <c r="C22" s="7">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="2">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E22" s="16">
-        <f t="shared" ref="E17:E38" si="0">E21</f>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:E23" si="0">E21</f>
         <v>100</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="H22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15">
+      <c r="C23" s="7">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="2">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15">
+      <c r="C24" s="7">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="2">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="12">
         <v>99</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="H24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15">
+      <c r="C25" s="7">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="12">
         <v>100</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
@@ -1101,252 +1165,279 @@
       <c r="D26" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="14">
         <v>55</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15">
+      <c r="C27" s="7">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="2">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="12">
         <v>80</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="H27" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15">
+      <c r="C28" s="7">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="2">
         <v>1.9E-3</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="12">
         <v>95</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="H28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15">
+      <c r="C29" s="7">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="2">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="12">
         <v>100</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="H29" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15">
+      <c r="C30" s="7">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="12">
         <v>100</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="H30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15">
+      <c r="C31" s="7">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="2">
         <v>3.3E-3</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="12">
         <v>100</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="H31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15">
+      <c r="C32" s="7">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="12">
         <v>100</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="H32" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15">
+      <c r="C33" s="7">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="2">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="12">
         <v>85</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="H33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15">
+      <c r="C34" s="7">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="2">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="12">
         <v>39</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="H34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15">
+      <c r="C35" s="7">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="12">
         <v>38</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="H35" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15">
+      <c r="C36" s="7">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="2">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="12">
         <v>91</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="H36" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15">
+      <c r="C37" s="7">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="12">
         <v>85</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="H37" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15">
+      <c r="C38" s="7">
         <f>575.8/86400</f>
         <v>6.664351851851851E-3</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="12">
         <v>94</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I39" t="s">
+      <c r="H38" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
@@ -1354,8 +1445,12 @@
         <f>AVERAGE(D2:D39)</f>
         <v>5.1270270270270257E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="12">
+        <f>37-1-COUNTBLANK(H2:H38)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
         <v>15</v>
       </c>
@@ -1365,7 +1460,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J37">
     <sortCondition ref="A4:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FCABC0-0BD1-424A-98FF-B26EF069E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC3CB95-3296-C542-BA1C-E371BEFDF98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="10460" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,18 +215,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -241,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -254,15 +248,8 @@
     </xf>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,10 +262,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,10 +589,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,10 +601,10 @@
     <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -631,19 +622,19 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -661,10 +652,10 @@
       <c r="D2" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J2" t="s">
@@ -682,10 +673,10 @@
       <c r="D3" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J3" t="s">
@@ -707,7 +698,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J4" t="s">
@@ -726,7 +717,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J5" t="s">
@@ -744,10 +735,10 @@
       <c r="D6" s="2">
         <v>3.3E-3</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -762,10 +753,10 @@
       <c r="D7" s="2">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J7" t="s">
@@ -783,10 +774,10 @@
       <c r="D8" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -801,10 +792,10 @@
       <c r="D9" s="2">
         <v>5.3E-3</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -819,13 +810,13 @@
       <c r="D10" s="2">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>100</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -840,13 +831,13 @@
       <c r="D11" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>100</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="18" t="s">
+      <c r="H11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -861,11 +852,11 @@
       <c r="D12" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>93</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J12" t="s">
@@ -883,13 +874,13 @@
       <c r="D13" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="8">
         <v>100</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="18" t="s">
+      <c r="H13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -904,13 +895,13 @@
       <c r="D14" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="8">
         <v>100</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="18" t="s">
+      <c r="H14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -925,13 +916,13 @@
       <c r="D15" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="8">
         <v>100</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="18" t="s">
+      <c r="H15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J15" t="s">
@@ -949,13 +940,13 @@
       <c r="D16" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="8">
         <v>99</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -970,13 +961,13 @@
       <c r="D17" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <v>100</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="18" t="s">
+      <c r="H17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -991,13 +982,13 @@
       <c r="D18" s="2">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="8">
         <v>98</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="18" t="s">
+      <c r="H18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1012,13 +1003,13 @@
       <c r="D19" s="2">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="8">
         <v>98</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="18" t="s">
+      <c r="H19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1033,13 +1024,13 @@
       <c r="D20" s="2">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="8">
         <v>97</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="18" t="s">
+      <c r="H20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1054,13 +1045,13 @@
       <c r="D21" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="8">
         <v>100</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="18" t="s">
+      <c r="H21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1075,14 +1066,14 @@
       <c r="D22" s="2">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="8">
         <f t="shared" ref="E22:E23" si="0">E21</f>
         <v>100</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="18" t="s">
+      <c r="H22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1097,14 +1088,14 @@
       <c r="D23" s="2">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="18" t="s">
+      <c r="H23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J23" t="s">
@@ -1122,13 +1113,13 @@
       <c r="D24" s="2">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="8">
         <v>99</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="18" t="s">
+      <c r="H24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1143,40 +1134,40 @@
       <c r="D25" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="8">
         <v>100</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="18" t="s">
+      <c r="H25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D26" s="11">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="D26" s="17">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E26" s="18">
         <v>55</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1191,13 +1182,13 @@
       <c r="D27" s="2">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="8">
         <v>80</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="18" t="s">
+      <c r="H27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1212,13 +1203,13 @@
       <c r="D28" s="2">
         <v>1.9E-3</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="8">
         <v>95</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="18" t="s">
+      <c r="H28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1233,13 +1224,13 @@
       <c r="D29" s="2">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="8">
         <v>100</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="18" t="s">
+      <c r="H29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1254,13 +1245,13 @@
       <c r="D30" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="8">
         <v>100</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="18" t="s">
+      <c r="H30" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1275,13 +1266,13 @@
       <c r="D31" s="2">
         <v>3.3E-3</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="8">
         <v>100</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="18" t="s">
+      <c r="H31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1296,13 +1287,13 @@
       <c r="D32" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="8">
         <v>100</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="18" t="s">
+      <c r="H32" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1317,13 +1308,13 @@
       <c r="D33" s="2">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="8">
         <v>85</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="18" t="s">
+      <c r="H33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1338,13 +1329,13 @@
       <c r="D34" s="2">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="8">
         <v>39</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="18" t="s">
+      <c r="H34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1359,13 +1350,13 @@
       <c r="D35" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="8">
         <v>38</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="18" t="s">
+      <c r="H35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1380,13 +1371,13 @@
       <c r="D36" s="2">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="8">
         <v>91</v>
       </c>
-      <c r="H36" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="18" t="s">
+      <c r="H36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1401,13 +1392,13 @@
       <c r="D37" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="8">
         <v>85</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="18" t="s">
+      <c r="H37" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1422,13 +1413,13 @@
       <c r="D38" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="8">
         <v>94</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="18" t="s">
+      <c r="H38" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1443,11 +1434,11 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.1270270270270257E-3</v>
-      </c>
-      <c r="H40" s="12">
-        <f>37-1-COUNTBLANK(H2:H38)</f>
-        <v>33</v>
+        <v>5.2459459459459441E-3</v>
+      </c>
+      <c r="H40" s="8">
+        <f>37-COUNTBLANK(H2:H38)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -1456,7 +1447,7 @@
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC3CB95-3296-C542-BA1C-E371BEFDF98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB992B7-E134-4344-A9D9-3B9547E3B934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
   <si>
     <t>XX</t>
   </si>
@@ -589,10 +589,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,9 +753,7 @@
       <c r="D7" s="2">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1436,7 @@
       </c>
       <c r="H40" s="8">
         <f>37-COUNTBLANK(H2:H38)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB992B7-E134-4344-A9D9-3B9547E3B934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3098473F-7451-BD4B-AEF9-A29648EE5ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -215,12 +215,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -256,12 +262,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,7 +269,27 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -589,10 +609,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,7 +623,7 @@
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.33203125" bestFit="1" customWidth="1"/>
@@ -628,7 +648,7 @@
       <c r="F1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="19" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -642,784 +662,1003 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24">
         <f>398.2/86400</f>
         <v>4.6087962962962957E-3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="25">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26">
         <v>7</v>
       </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24">
         <f>414.2/86400</f>
         <v>4.7939814814814815E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="25">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26">
+        <v>4</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="24">
         <f>371.2/86400</f>
         <v>4.2962962962962963E-3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="25">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="13" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
+        <v>9</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="25">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="13" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26">
+        <v>52</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24">
         <f>448/86400</f>
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="25">
         <v>3.3E-3</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26">
+        <v>8</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24">
         <f>362.9/86400</f>
         <v>4.200231481481481E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="25">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26">
+        <v>5</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="25">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26">
+        <v>28</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="25">
         <v>5.3E-3</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
+        <v>14</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="25">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="26">
         <v>100</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F10" s="26">
+        <v>4</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="25">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="26">
         <v>100</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F11" s="26">
+        <v>17</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="25">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="26">
         <v>93</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13" t="s">
+      <c r="F12" s="26">
+        <v>9</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="25">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="26">
         <v>100</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F13" s="26">
+        <v>4</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="25">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="26">
         <v>100</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F14" s="26">
+        <v>6</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="15">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="16">
         <v>100</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="F15" s="16">
+        <v>6</v>
+      </c>
+      <c r="G15" s="21">
+        <v>3540</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="J15" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="25">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="26">
         <v>99</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F16" s="26">
+        <v>9</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="25">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="26">
         <v>100</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F17" s="26">
+        <v>8</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="25">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="26">
         <v>98</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F18" s="26">
+        <v>13</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="25">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="26">
         <v>98</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F19" s="26">
+        <v>8</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="7">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="25">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="26">
         <v>97</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F20" s="26">
+        <v>8</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="25">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="26">
         <v>100</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F21" s="26">
+        <v>4</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="25">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="26">
         <f t="shared" ref="E22:E23" si="0">E21</f>
         <v>100</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F22" s="26">
+        <v>14</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="25">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="26">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="F23" s="26">
+        <v>3</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="7">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="25">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="26">
         <v>99</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F24" s="26">
+        <v>12</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="7">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="25">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="26">
         <v>100</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F25" s="26">
+        <v>3</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="25">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="26">
         <v>55</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="14" t="s">
+      <c r="F26" s="26">
+        <v>26</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="7">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="25">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="26">
         <v>80</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F27" s="26">
+        <v>4</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="7">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="25">
         <v>1.9E-3</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="26">
         <v>95</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F28" s="26">
+        <v>15</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="7">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="25">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="26">
         <v>100</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F29" s="26">
+        <v>5</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="7">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="26">
         <v>100</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F30" s="26">
+        <v>6</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="7">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="25">
         <v>3.3E-3</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="26">
         <v>100</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F31" s="26">
+        <v>17</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="22"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="7">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="25">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="26">
         <v>100</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F32" s="26">
+        <v>7</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="7">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="25">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="26">
         <v>85</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F33" s="26">
+        <v>9</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="7">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="25">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="26">
         <v>39</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F34" s="26">
+        <v>38</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="7">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="25">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="26">
         <v>38</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F35" s="26">
+        <v>4</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="7">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="25">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="26">
         <v>91</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F36" s="26">
+        <v>11</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="7">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="25">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="26">
         <v>85</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F37" s="26">
+        <v>10</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="7">
+      <c r="B38" s="23"/>
+      <c r="C38" s="24">
         <f>575.8/86400</f>
         <v>6.664351851851851E-3</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="25">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="26">
         <v>94</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F38" s="26">
+        <v>8</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J39" t="s">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3098473F-7451-BD4B-AEF9-A29648EE5ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B3CE9-36B1-2642-A8FA-92A34B89BE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -612,7 +612,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,29 +662,33 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14">
         <f>398.2/86400</f>
         <v>4.6087962962962957E-3</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="15">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26">
+      <c r="E2" s="16">
+        <v>100</v>
+      </c>
+      <c r="F2" s="16">
         <v>7</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="G2" s="21">
+        <v>1837</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B3CE9-36B1-2642-A8FA-92A34B89BE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5B07D8-E376-C746-81D5-2F95CD497219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
   <si>
     <t>XX</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Δ</t>
+  </si>
+  <si>
+    <t>Population deviation in DRA reported as 0.57%.</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,30 +696,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14">
         <f>414.2/86400</f>
         <v>4.7939814814814815E-3</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="15">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26">
+      <c r="E3" s="16">
+        <v>100</v>
+      </c>
+      <c r="F3" s="16">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="21">
+        <v>2747</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>7</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5B07D8-E376-C746-81D5-2F95CD497219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF873A1A-E037-0546-A78B-8E625CA576D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -615,7 +615,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,29 +727,33 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="14">
         <f>371.2/86400</f>
         <v>4.2962962962962963E-3</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="15">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="E4" s="16">
+        <v>82</v>
+      </c>
+      <c r="F4" s="16">
         <v>9</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="21">
+        <v>1538</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF873A1A-E037-0546-A78B-8E625CA576D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4057F164-4ECD-DA4A-9B64-33E117E32020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t>XX</t>
   </si>
@@ -615,7 +615,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,54 +758,60 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="15">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26">
+      <c r="E5" s="16">
+        <v>65</v>
+      </c>
+      <c r="F5" s="16">
         <v>52</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="29" t="s">
+      <c r="G5" s="21">
+        <v>9129</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14">
         <f>448/86400</f>
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="15">
         <v>3.3E-3</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26">
+      <c r="E6" s="16">
+        <v>99</v>
+      </c>
+      <c r="F6" s="16">
         <v>8</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="22"/>
+      <c r="G6" s="21">
+        <v>3108</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4057F164-4ECD-DA4A-9B64-33E117E32020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC5704-1985-4746-9C37-13F1998EC88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -176,9 +176,6 @@
     <t>WI</t>
   </si>
   <si>
-    <t>Converted tracts assignments to blocks assignments.</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Population deviation in DRA reported as 0.57%.</t>
+  </si>
+  <si>
+    <t>Used tracts as precincts &amp; converted assignments to blocks.</t>
   </si>
 </sst>
 </file>
@@ -612,10 +612,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,7 +629,7 @@
     <col min="7" max="7" width="10" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -646,19 +646,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
@@ -686,7 +686,7 @@
         <v>1837</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>7</v>
@@ -717,13 +717,13 @@
         <v>2747</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -808,33 +808,37 @@
         <v>3108</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14">
         <f>362.9/86400</f>
         <v>4.200231481481481E-3</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="15">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26">
+      <c r="E7" s="16">
+        <v>99</v>
+      </c>
+      <c r="F7" s="16">
         <v>5</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29" t="s">
+      <c r="G7" s="21">
+        <v>766</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -856,10 +860,10 @@
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="22"/>
     </row>
@@ -881,10 +885,10 @@
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="22"/>
     </row>
@@ -908,10 +912,10 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="22"/>
     </row>
@@ -935,10 +939,10 @@
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="22"/>
     </row>
@@ -989,10 +993,10 @@
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="22"/>
     </row>
@@ -1016,10 +1020,10 @@
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" s="22"/>
     </row>
@@ -1045,7 +1049,7 @@
         <v>3540</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>7</v>
@@ -1074,10 +1078,10 @@
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="22"/>
     </row>
@@ -1101,10 +1105,10 @@
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" s="22"/>
     </row>
@@ -1128,10 +1132,10 @@
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="22"/>
     </row>
@@ -1155,10 +1159,10 @@
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19" s="22"/>
     </row>
@@ -1182,10 +1186,10 @@
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" s="22"/>
     </row>
@@ -1209,10 +1213,10 @@
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J21" s="22"/>
     </row>
@@ -1237,10 +1241,10 @@
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" s="22"/>
     </row>
@@ -1265,10 +1269,10 @@
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" s="22" t="s">
         <v>7</v>
@@ -1294,10 +1298,10 @@
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" s="22"/>
     </row>
@@ -1321,10 +1325,10 @@
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" s="22"/>
     </row>
@@ -1348,10 +1352,10 @@
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>23</v>
@@ -1377,10 +1381,10 @@
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="22"/>
     </row>
@@ -1404,10 +1408,10 @@
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28" s="22"/>
     </row>
@@ -1431,10 +1435,10 @@
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J29" s="22"/>
     </row>
@@ -1458,10 +1462,10 @@
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J30" s="22"/>
     </row>
@@ -1485,10 +1489,10 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J31" s="22"/>
     </row>
@@ -1512,10 +1516,10 @@
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J32" s="22"/>
     </row>
@@ -1539,10 +1543,10 @@
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J33" s="22"/>
     </row>
@@ -1566,10 +1570,10 @@
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34" s="22"/>
     </row>
@@ -1593,10 +1597,10 @@
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J35" s="22"/>
     </row>
@@ -1620,10 +1624,10 @@
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J36" s="22"/>
     </row>
@@ -1647,10 +1651,10 @@
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J37" s="22"/>
     </row>
@@ -1674,10 +1678,10 @@
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J38" s="22"/>
     </row>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC5704-1985-4746-9C37-13F1998EC88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC60AE4E-770E-AC4E-8106-E23E5659673F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="23560" yWindow="5900" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
   <si>
     <t>XX</t>
   </si>
@@ -194,7 +194,7 @@
     <t>Population deviation in DRA reported as 0.57%.</t>
   </si>
   <si>
-    <t>Used tracts as precincts &amp; converted assignments to blocks.</t>
+    <t>Re-import</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -265,22 +271,14 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,6 +291,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,10 +635,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +649,7 @@
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="51.1640625" bestFit="1" customWidth="1"/>
@@ -651,7 +674,7 @@
       <c r="F1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -665,1025 +688,1016 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14">
+      <c r="C2" s="7">
         <f>398.2/86400</f>
         <v>4.6087962962962957E-3</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="8">
         <v>100</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="8">
         <v>7</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="15">
         <v>1837</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14">
+      <c r="C3" s="7">
         <f>414.2/86400</f>
         <v>4.7939814814814815E-3</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="8">
         <v>100</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="8">
         <v>4</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="15">
         <v>2747</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="33">
         <f>371.2/86400</f>
         <v>4.2962962962962963E-3</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="34">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="35">
         <v>82</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="35">
         <v>9</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="36">
         <v>1538</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26">
         <f>4394.5/86400</f>
         <v>5.0862268518518522E-2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="27">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="28">
         <v>65</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="28">
         <v>52</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="29">
         <v>9129</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="18" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14">
+      <c r="C6" s="7">
         <f>448/86400</f>
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="2">
         <v>3.3E-3</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="8">
         <v>99</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="8">
         <v>8</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="15">
         <v>3108</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="H6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33">
         <f>362.9/86400</f>
         <v>4.200231481481481E-3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="34">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="35">
         <v>99</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="35">
         <v>5</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="36">
         <v>766</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18" t="s">
+      <c r="H7" s="38"/>
+      <c r="I7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="19">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20">
         <v>28</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="19">
         <v>5.3E-3</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>14</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="22"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="19">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="20">
         <v>100</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="20">
         <v>4</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="19">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="20">
         <v>100</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="20">
         <v>17</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="34">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="35">
         <v>93</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="35">
         <v>9</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29" t="s">
+      <c r="G12" s="36">
+        <v>5159</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="22" t="s">
-        <v>7</v>
-      </c>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="19">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="20">
         <v>100</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="20">
         <v>4</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="20">
         <v>100</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="20">
         <v>6</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14">
+      <c r="C15" s="7">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="8">
         <v>100</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="8">
         <v>6</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="15">
         <v>3540</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="18" t="s">
+      <c r="H15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="19">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="20">
         <v>99</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="20">
         <v>9</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="22"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="19">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="20">
         <v>100</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="20">
         <v>8</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="19">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="20">
         <v>98</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="20">
         <v>13</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="19">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="20">
         <v>98</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="20">
         <v>8</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="19">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="20">
         <v>97</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="20">
         <v>8</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="19">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="20">
         <v>100</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="20">
         <v>4</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="22"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="19">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="20">
         <f t="shared" ref="E22:E23" si="0">E21</f>
         <v>100</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="20">
         <v>14</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="19">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="20">
         <v>3</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="22" t="s">
+      <c r="G23" s="21"/>
+      <c r="H23" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="19">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="20">
         <v>99</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="20">
         <v>12</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="19">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="20">
         <v>100</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="20">
         <v>3</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="22"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="19">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="20">
         <v>55</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="20">
         <v>26</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="22" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="19">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="20">
         <v>80</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="20">
         <v>4</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="19">
         <v>1.9E-3</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="20">
         <v>95</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="20">
         <v>15</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="22"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="19">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="20">
         <v>100</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="20">
         <v>5</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="22"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="20">
         <v>100</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="20">
         <v>6</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="19">
         <v>3.3E-3</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="20">
         <v>100</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="20">
         <v>17</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="22"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="19">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="20">
         <v>100</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="20">
         <v>7</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" s="22"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="19">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="20">
         <v>85</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="20">
         <v>9</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33" s="22"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="19">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="20">
         <v>39</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="20">
         <v>38</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="22"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="19">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="20">
         <v>38</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="20">
         <v>4</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="22"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="19">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="20">
         <v>91</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="20">
         <v>11</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" s="22"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="19">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="20">
         <v>85</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="20">
         <v>10</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="22"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24">
+      <c r="B38" s="17"/>
+      <c r="C38" s="18">
         <f>575.8/86400</f>
         <v>6.664351851851851E-3</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="19">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="20">
         <v>94</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="20">
         <v>8</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="22"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J39" t="s">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC60AE4E-770E-AC4E-8106-E23E5659673F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72E61B-8723-E34B-8908-3BA3E0EB002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="5900" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="9140" yWindow="6760" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>XX</t>
   </si>
@@ -107,9 +107,6 @@
     <t>CA</t>
   </si>
   <si>
-    <t>DRA reports this as not contiguous.</t>
-  </si>
-  <si>
     <t>FL</t>
   </si>
   <si>
@@ -194,7 +191,13 @@
     <t>Population deviation in DRA reported as 0.57%.</t>
   </si>
   <si>
-    <t>Re-import</t>
+    <t>Population deviation in DRA reported as 3.62%.</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>DRA erroneously reports this as not contiguous.</t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -294,16 +297,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,9 +306,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +628,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,19 +659,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
@@ -689,7 +679,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7">
         <f>398.2/86400</f>
@@ -708,7 +698,7 @@
         <v>1837</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>7</v>
@@ -719,7 +709,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7">
         <f>414.2/86400</f>
@@ -738,76 +728,77 @@
         <v>2747</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
-        <v>51</v>
+      <c r="J3" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="7">
         <f>371.2/86400</f>
         <v>4.2962962962962963E-3</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="8">
         <v>82</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="8">
         <v>9</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="15">
         <v>1538</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="37" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26">
-        <f>4394.5/86400</f>
-        <v>5.0862268518518522E-2</v>
-      </c>
-      <c r="D5" s="27">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="E5" s="28">
-        <v>65</v>
-      </c>
-      <c r="F5" s="28">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27">
+        <f>11724.8/86400</f>
+        <v>0.13570370370370369</v>
+      </c>
+      <c r="D5" s="28">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E5" s="29">
+        <v>66</v>
+      </c>
+      <c r="F5" s="29">
         <v>52</v>
       </c>
-      <c r="G5" s="29">
-        <v>9129</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="30" t="s">
+      <c r="G5" s="30">
+        <v>25607</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <f>448/86400</f>
@@ -826,40 +817,38 @@
         <v>3108</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7">
         <f>362.9/86400</f>
         <v>4.200231481481481E-3</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="2">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="8">
         <v>99</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="8">
         <v>5</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="15">
         <v>766</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="37" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="18">
@@ -875,10 +864,10 @@
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="16"/>
     </row>
@@ -900,16 +889,16 @@
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="18">
@@ -927,10 +916,10 @@
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="16"/>
     </row>
@@ -954,39 +943,37 @@
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="8">
         <v>93</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="8">
         <v>9</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="15">
         <v>5159</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="37" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -1008,16 +995,16 @@
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18">
@@ -1035,10 +1022,10 @@
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="16"/>
     </row>
@@ -1063,7 +1050,7 @@
         <v>3540</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>7</v>
@@ -1074,7 +1061,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18">
@@ -1092,10 +1079,10 @@
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="16"/>
     </row>
@@ -1119,10 +1106,10 @@
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" s="16"/>
     </row>
@@ -1146,16 +1133,16 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="18">
@@ -1173,16 +1160,16 @@
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="18">
@@ -1200,16 +1187,16 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="18">
@@ -1227,10 +1214,10 @@
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21" s="16"/>
     </row>
@@ -1255,16 +1242,16 @@
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="18">
@@ -1283,10 +1270,10 @@
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>7</v>
@@ -1312,16 +1299,16 @@
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="18">
@@ -1339,10 +1326,10 @@
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J25" s="16"/>
     </row>
@@ -1366,13 +1353,13 @@
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1395,16 +1382,16 @@
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="18">
@@ -1422,16 +1409,16 @@
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="18">
@@ -1449,16 +1436,16 @@
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="18">
@@ -1476,16 +1463,16 @@
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="18">
@@ -1503,16 +1490,16 @@
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="18">
@@ -1530,16 +1517,16 @@
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="18">
@@ -1557,16 +1544,16 @@
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="18">
@@ -1584,10 +1571,10 @@
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" s="16"/>
     </row>
@@ -1611,10 +1598,10 @@
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35" s="16"/>
     </row>
@@ -1638,10 +1625,10 @@
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" s="16"/>
     </row>
@@ -1665,16 +1652,16 @@
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="18">
@@ -1692,10 +1679,10 @@
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" s="16"/>
     </row>
@@ -1710,10 +1697,10 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.2459459459459441E-3</v>
+        <v>5.199999999999998E-3</v>
       </c>
       <c r="H40" s="8">
-        <f>37-COUNTBLANK(H2:H38)</f>
+        <f>37-1-COUNTBLANK(H2:H38)</f>
         <v>33</v>
       </c>
     </row>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72E61B-8723-E34B-8908-3BA3E0EB002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A75BD0-8855-E643-AEFF-0A230003CBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="6760" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>XX</t>
   </si>
@@ -173,9 +173,6 @@
     <t>WI</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t># maps</t>
   </si>
   <si>
@@ -185,26 +182,23 @@
     <t># precincts</t>
   </si>
   <si>
-    <t>Δ</t>
-  </si>
-  <si>
     <t>Population deviation in DRA reported as 0.57%.</t>
   </si>
   <si>
     <t>Population deviation in DRA reported as 3.62%.</t>
   </si>
   <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>DRA erroneously reports this as not contiguous.</t>
+    <t>DRA reports this as not contiguous, because it uses a slightly less fully patched contiguity graph.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +208,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -250,10 +251,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -268,18 +270,6 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -290,26 +280,12 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,13 +615,11 @@
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,25 +633,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -694,20 +662,14 @@
       <c r="F2" s="8">
         <v>7</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="11">
         <v>1837</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -724,20 +686,14 @@
       <c r="F3" s="8">
         <v>4</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>2747</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -757,46 +713,35 @@
       <c r="F4" s="8">
         <v>9</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>1538</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27">
+      <c r="C5" s="7">
         <f>11724.8/86400</f>
         <v>0.13570370370370369</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="2">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="8">
         <v>66</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="8">
         <v>52</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="11">
         <v>25607</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -813,15 +758,11 @@
       <c r="F6" s="8">
         <v>8</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>3108</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -838,119 +779,91 @@
       <c r="F7" s="8">
         <v>5</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>766</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16">
         <v>28</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>5.3E-3</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
         <v>14</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>100</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="16">
         <v>4</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>100</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="16">
         <v>17</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G11" s="17"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -967,69 +880,53 @@
       <c r="F12" s="8">
         <v>9</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="11">
         <v>5159</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>100</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="16">
         <v>4</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <v>100</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>6</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G14" s="17"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1046,675 +943,559 @@
       <c r="F15" s="8">
         <v>6</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="11">
         <v>3540</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="13" t="s">
+      <c r="H15" t="s">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="15">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <v>99</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="16">
         <v>9</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="15">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="16">
         <v>100</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="16">
         <v>8</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="15">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="16">
         <v>98</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="16">
         <v>13</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="15">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="16">
         <v>98</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="16">
         <v>8</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="15">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="16">
         <v>97</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="16">
         <v>8</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="16">
         <v>100</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="16">
         <v>4</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="15">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="16">
         <f t="shared" ref="E22:E23" si="0">E21</f>
         <v>100</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="16">
         <v>14</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="15">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="16">
         <v>3</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="16" t="s">
+      <c r="G23" s="17"/>
+      <c r="H23" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="15">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="16">
         <v>99</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="16">
         <v>12</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="15">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="16">
         <v>100</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="16">
         <v>3</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="15">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="16">
         <v>55</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="16">
         <v>26</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="G26" s="17"/>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="15">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="16">
         <v>80</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="16">
         <v>4</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="15">
         <v>1.9E-3</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="16">
         <v>95</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="16">
         <v>15</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="15">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="16">
         <v>100</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="16">
         <v>5</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="G29" s="17"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="16">
         <v>100</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="16">
         <v>6</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="G30" s="17"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="15">
         <v>3.3E-3</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="16">
         <v>100</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="16">
         <v>17</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="G31" s="17"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="16">
         <v>100</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="16">
         <v>7</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="G32" s="17"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="15">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="16">
         <v>85</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="16">
         <v>9</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+      <c r="G33" s="17"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="15">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="16">
         <v>39</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="16">
         <v>38</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="G34" s="17"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="16">
         <v>38</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="16">
         <v>4</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="G35" s="17"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="15">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="16">
         <v>91</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="16">
         <v>11</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="G36" s="17"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="15">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="16">
         <v>85</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="16">
         <v>10</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="G37" s="17"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14">
         <f>575.8/86400</f>
         <v>6.664351851851851E-3</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="15">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="16">
         <v>94</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="16">
         <v>8</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J39" t="s">
+      <c r="G38" s="17"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C40" s="7" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>14</v>
+      </c>
+      <c r="C40" s="7">
+        <f t="shared" ref="C40:G40" si="1">AVERAGE(C2:C39)</f>
+        <v>1.0855073823823823E-2</v>
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
         <v>5.199999999999998E-3</v>
       </c>
-      <c r="H40" s="8">
-        <f>37-1-COUNTBLANK(H2:H38)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C41" s="7" t="s">
+      <c r="E40" s="8">
+        <f t="shared" si="1"/>
+        <v>91.2</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="1"/>
+        <v>11.216216216216216</v>
+      </c>
+      <c r="G40" s="20">
+        <f t="shared" si="1"/>
+        <v>5537.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" ref="C41" si="2">MEDIAN(C2:C39)</f>
+        <v>5.185185185185185E-3</v>
       </c>
       <c r="D41" s="2">
         <f>MEDIAN(D2:D39)</f>
         <v>4.8999999999999998E-3</v>
       </c>
+      <c r="E41" s="8">
+        <f t="shared" ref="E41:F41" si="3">MEDIAN(E2:E39)</f>
+        <v>99</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G41" s="20">
+        <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
+        <v>2927.5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H37">
     <sortCondition ref="A4:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A75BD0-8855-E643-AEFF-0A230003CBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A2950-0639-6A43-8750-5F3BFC6DE142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -188,7 +188,7 @@
     <t>Population deviation in DRA reported as 3.62%.</t>
   </si>
   <si>
-    <t>DRA reports this as not contiguous, because it uses a slightly less fully patched contiguity graph.</t>
+    <t>Re-assigned on zero-population precinct (islands in the Hudson), so DRA would report the map as contiguous.</t>
   </si>
 </sst>
 </file>
@@ -255,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,8 +281,15 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -601,10 +608,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,7 +623,7 @@
     <col min="5" max="5" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -689,7 +696,7 @@
       <c r="G3" s="11">
         <v>2747</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -784,23 +791,27 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="23">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16">
+      <c r="E8" s="24">
+        <v>50</v>
+      </c>
+      <c r="F8" s="24">
         <v>28</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="25">
+        <v>7211</v>
+      </c>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
@@ -1165,25 +1176,25 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="23">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="24">
         <v>55</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="24">
         <v>26</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="20" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1458,15 +1469,15 @@
       </c>
       <c r="E40" s="8">
         <f t="shared" si="1"/>
-        <v>91.2</v>
+        <v>90.055555555555557</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="1"/>
         <v>11.216216216216216</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>5537.75</v>
+        <v>5723.666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1489,9 +1500,9 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="19">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>2927.5</v>
+        <v>3108</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A2950-0639-6A43-8750-5F3BFC6DE142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389ED98A-639A-8F48-9E98-13251CA5842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -611,7 +611,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,23 +814,27 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="23">
         <v>5.3E-3</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16">
+      <c r="E9" s="24">
+        <v>96</v>
+      </c>
+      <c r="F9" s="24">
         <v>14</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="25">
+        <v>2698</v>
+      </c>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
@@ -1469,7 +1473,7 @@
       </c>
       <c r="E40" s="8">
         <f t="shared" si="1"/>
-        <v>90.055555555555557</v>
+        <v>90.21621621621621</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="1"/>
@@ -1477,7 +1481,7 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>5723.666666666667</v>
+        <v>5421.1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1502,7 +1506,7 @@
       </c>
       <c r="G41" s="19">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3108</v>
+        <v>2927.5</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389ED98A-639A-8F48-9E98-13251CA5842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE0435-084D-2947-A49B-1430787697EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -611,7 +611,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="A9:H9"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="A10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,25 +837,27 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="23">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="24">
         <v>100</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="24">
         <v>4</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="25">
+        <v>2536</v>
+      </c>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
@@ -1481,7 +1483,7 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>5421.1</v>
+        <v>5158.818181818182</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1506,7 +1508,7 @@
       </c>
       <c r="G41" s="19">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>2927.5</v>
+        <v>2747</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE0435-084D-2947-A49B-1430787697EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847D0B5-671B-4B43-B4ED-0AD0AB344B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -611,7 +611,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="A10:H10"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,12 +872,14 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E11" s="16">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="16">
         <v>17</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="17">
+        <v>10084</v>
+      </c>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1475,7 +1477,7 @@
       </c>
       <c r="E40" s="8">
         <f t="shared" si="1"/>
-        <v>90.21621621621621</v>
+        <v>90.189189189189193</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="1"/>
@@ -1483,7 +1485,7 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>5158.818181818182</v>
+        <v>5569.25</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1508,7 +1510,7 @@
       </c>
       <c r="G41" s="19">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>2747</v>
+        <v>2927.5</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847D0B5-671B-4B43-B4ED-0AD0AB344B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B78E0-8CC0-F444-A5E0-1552A82AB2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -611,7 +611,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,69 +860,73 @@
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="23">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="24">
         <v>99</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="24">
         <v>17</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="25">
         <v>10084</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="23">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="24">
         <v>93</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="24">
         <v>9</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="25">
         <v>5159</v>
       </c>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="23">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="24">
         <v>100</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="24">
         <v>4</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="25">
+        <v>4240</v>
+      </c>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
@@ -1485,7 +1489,7 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>5569.25</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1510,7 +1514,7 @@
       </c>
       <c r="G41" s="19">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>2927.5</v>
+        <v>3108</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B78E0-8CC0-F444-A5E0-1552A82AB2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720A978C-481E-1C4D-9A60-BD5CE578978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>XX</t>
   </si>
@@ -255,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -290,6 +290,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -611,7 +619,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,25 +937,27 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="23">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="24">
         <v>100</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="24">
         <v>6</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="25">
+        <v>3693</v>
+      </c>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -974,25 +984,29 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="15">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D16" s="29">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E16" s="30">
         <v>99</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="30">
         <v>9</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="31">
+        <v>2157</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
@@ -1477,7 +1491,7 @@
       </c>
       <c r="D40" s="2">
         <f>AVERAGE(D2:D39)</f>
-        <v>5.199999999999998E-3</v>
+        <v>5.1162162162162149E-3</v>
       </c>
       <c r="E40" s="8">
         <f t="shared" si="1"/>
@@ -1489,7 +1503,7 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>5467</v>
+        <v>5128.0666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720A978C-481E-1C4D-9A60-BD5CE578978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3310F865-B4A0-FD48-8804-AF3587FDA0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>XX</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Re-assigned on zero-population precinct (islands in the Hudson), so DRA would report the map as contiguous.</t>
+  </si>
+  <si>
+    <t>Population deviation in DRA reported as 1.81%.</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,8 +1029,12 @@
       <c r="F17" s="16">
         <v>8</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="17">
+        <v>2042</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
@@ -1503,7 +1510,7 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>5128.0666666666666</v>
+        <v>4935.1875</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1528,7 +1535,7 @@
       </c>
       <c r="G41" s="19">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3108</v>
+        <v>2927.5</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3310F865-B4A0-FD48-8804-AF3587FDA0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1F22FA-3F79-6849-BA3D-9BD8FEDE201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -622,7 +622,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,24 +1012,24 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="23">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="24">
         <v>100</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="24">
         <v>8</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="25">
         <v>2042</v>
       </c>
       <c r="H17" t="s">
@@ -1037,25 +1037,27 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="23">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="24">
         <v>98</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="24">
         <v>13</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="25">
+        <v>4805</v>
+      </c>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
@@ -1510,7 +1512,7 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>4935.1875</v>
+        <v>4927.5294117647063</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1535,7 +1537,7 @@
       </c>
       <c r="G41" s="19">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>2927.5</v>
+        <v>3108</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1F22FA-3F79-6849-BA3D-9BD8FEDE201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB494C-C619-9640-921F-273CBC0BBB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -622,7 +622,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1077,9 @@
       <c r="F19" s="16">
         <v>8</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="17">
+        <v>4110</v>
+      </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1512,7 +1514,7 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>4927.5294117647063</v>
+        <v>4882.1111111111113</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1537,7 +1539,7 @@
       </c>
       <c r="G41" s="19">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3108</v>
+        <v>3324</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB494C-C619-9640-921F-273CBC0BBB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC0F9C4-1893-ED42-B6CD-F54269466B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>XX</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Population deviation in DRA reported as 1.81%.</t>
+  </si>
+  <si>
+    <t>Population deviation in DRA reported as 0.47%.</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,48 +1063,52 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="23">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="24">
         <v>98</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="24">
         <v>8</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="25">
         <v>4110</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="23">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="24">
         <v>97</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="24">
         <v>8</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="25">
+        <v>4604</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
@@ -1514,7 +1521,7 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>4882.1111111111113</v>
+        <v>4867.4736842105267</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1539,7 +1546,7 @@
       </c>
       <c r="G41" s="19">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3324</v>
+        <v>3540</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC0F9C4-1893-ED42-B6CD-F54269466B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A3BA9-EB76-D94D-9F62-19E2625569CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -625,7 +625,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,25 +1111,27 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="23">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="24">
         <v>100</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="24">
         <v>4</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="25">
+        <v>1834</v>
+      </c>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
@@ -1521,7 +1523,7 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
-        <v>4867.4736842105267</v>
+        <v>4715.8</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1546,7 +1548,7 @@
       </c>
       <c r="G41" s="19">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3540</v>
+        <v>3324</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A3BA9-EB76-D94D-9F62-19E2625569CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D1B8B5-0337-EC4B-8E78-3110C182A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>Population deviation in DRA reported as 0.57%.</t>
   </si>
   <si>
-    <t>Population deviation in DRA reported as 3.62%.</t>
-  </si>
-  <si>
     <t>Re-assigned on zero-population precinct (islands in the Hudson), so DRA would report the map as contiguous.</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Population deviation in DRA reported as 0.47%.</t>
+  </si>
+  <si>
+    <t>Population deviation in DRA reported as 3.62%. DRA uses data adjusted for prison populations.</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,12 +238,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -286,7 +280,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -625,7 +618,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,8 +751,8 @@
       <c r="G5" s="11">
         <v>25607</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>49</v>
+      <c r="H5" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -805,165 +798,165 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>50</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>28</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>7211</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>5.3E-3</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>96</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>14</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>2698</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>100</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>4</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>2536</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>99</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>17</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>10084</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>93</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>9</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>5159</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>100</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>4</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>4240</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>100</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>6</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>3693</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -990,170 +983,172 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>99</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <v>9</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <v>2157</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>100</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>8</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <v>2042</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>98</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>13</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <v>4805</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>98</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>8</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="24">
         <v>4110</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>97</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>8</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="24">
         <v>4604</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>100</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>4</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="24">
         <v>1834</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="22">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="23">
         <f t="shared" ref="E22:E23" si="0">E21</f>
         <v>100</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="23">
         <v>14</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="24">
+        <v>2666</v>
+      </c>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -1222,26 +1217,26 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>55</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>26</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="20" t="s">
-        <v>50</v>
+      <c r="G26" s="24"/>
+      <c r="H26" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1521,9 +1516,9 @@
         <f t="shared" si="1"/>
         <v>11.216216216216216</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>4715.8</v>
+        <v>4618.1904761904761</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1546,9 +1541,9 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="18">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3324</v>
+        <v>3108</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D1B8B5-0337-EC4B-8E78-3110C182A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC253BA0-CC01-6D42-A33E-3BECDF213C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -618,7 +618,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,26 +1151,28 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="22">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="23">
         <v>3</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="12" t="s">
+      <c r="G23" s="24">
+        <v>1402</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1518,7 +1520,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>4618.1904761904761</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1543,7 +1545,7 @@
       </c>
       <c r="G41" s="18">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3108</v>
+        <v>2927.5</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC253BA0-CC01-6D42-A33E-3BECDF213C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B2E6B3-2072-6248-9CC2-CE3B0748A273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>XX</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Population deviation in DRA reported as 3.62%. DRA uses data adjusted for prison populations.</t>
+  </si>
+  <si>
+    <t>Population deviation in DRA reported as 1.09%.</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,25 +1180,29 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="22">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="23">
         <v>99</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="23">
         <v>12</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="24">
+        <v>6361</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
@@ -1520,7 +1527,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>4472</v>
+        <v>4554.130434782609</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1545,7 +1552,7 @@
       </c>
       <c r="G41" s="18">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>2927.5</v>
+        <v>3108</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B2E6B3-2072-6248-9CC2-CE3B0748A273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B0A206-4ED3-B04B-ADC7-6A364EDA935F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -621,7 +621,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,25 +1205,27 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="22">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="23">
         <v>100</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="23">
         <v>3</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="24">
+        <v>1977</v>
+      </c>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
@@ -1243,7 +1245,9 @@
       <c r="F26" s="23">
         <v>26</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="24">
+        <v>14191</v>
+      </c>
       <c r="H26" s="19" t="s">
         <v>49</v>
       </c>
@@ -1527,7 +1531,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>4554.130434782609</v>
+        <v>4836.5200000000004</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B0A206-4ED3-B04B-ADC7-6A364EDA935F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8FA1B1-81E1-BA4A-8876-A6BBBFFBAE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="23320" yWindow="11060" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>XX</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Population deviation in DRA reported as 1.09%.</t>
+  </si>
+  <si>
+    <t>Population deviation in DRA reported as 0.71%.</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -284,22 +287,6 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -621,7 +608,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,7 +741,7 @@
       <c r="G5" s="11">
         <v>25607</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -801,165 +788,151 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21">
+      <c r="C8" s="7">
         <f>1601.7/86400</f>
         <v>1.8538194444444444E-2</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="8">
         <v>50</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="8">
         <v>28</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="11">
         <v>7211</v>
       </c>
-      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <f>468.2/86400</f>
         <v>5.4189814814814812E-3</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="2">
         <v>5.3E-3</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="8">
         <v>96</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="8">
         <v>14</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="11">
         <v>2698</v>
       </c>
-      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21">
+      <c r="C10" s="7">
         <f>417.8/86400</f>
         <v>4.8356481481481479E-3</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="2">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="8">
         <v>100</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="8">
         <v>4</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="11">
         <v>2536</v>
       </c>
-      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21">
+      <c r="C11" s="7">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="8">
         <v>99</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="8">
         <v>17</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="11">
         <v>10084</v>
       </c>
-      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21">
+      <c r="C12" s="7">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="8">
         <v>93</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="8">
         <v>9</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="11">
         <v>5159</v>
       </c>
-      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21">
+      <c r="C13" s="7">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="8">
         <v>100</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="8">
         <v>4</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="11">
         <v>4240</v>
       </c>
-      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21">
+      <c r="C14" s="7">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="8">
         <v>100</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="8">
         <v>6</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="11">
         <v>3693</v>
       </c>
-      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -986,49 +959,47 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27">
+      <c r="C16" s="7">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="2">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="8">
         <v>99</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="8">
         <v>9</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="11">
         <v>2157</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21">
+      <c r="C17" s="7">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="8">
         <v>100</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="8">
         <v>8</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="11">
         <v>2042</v>
       </c>
       <c r="H17" t="s">
@@ -1036,70 +1007,65 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21">
+      <c r="C18" s="7">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="2">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="8">
         <v>98</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="8">
         <v>13</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="11">
         <v>4805</v>
       </c>
-      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21">
+      <c r="C19" s="7">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="2">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="8">
         <v>98</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="8">
         <v>8</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="11">
         <v>4110</v>
       </c>
-      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21">
+      <c r="C20" s="7">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="2">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="8">
         <v>97</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="8">
         <v>8</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="11">
         <v>4604</v>
       </c>
       <c r="H20" t="s">
@@ -1107,97 +1073,91 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21">
+      <c r="C21" s="7">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="8">
         <v>100</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="11">
         <v>1834</v>
       </c>
-      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21">
+      <c r="C22" s="7">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="2">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="8">
         <f t="shared" ref="E22:E23" si="0">E21</f>
         <v>100</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="8">
         <v>14</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="11">
         <v>2666</v>
       </c>
-      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21">
+      <c r="C23" s="7">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="2">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="8">
         <v>3</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="11">
         <v>1402</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21">
+      <c r="C24" s="7">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="2">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="8">
         <v>99</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="8">
         <v>12</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="11">
         <v>6361</v>
       </c>
       <c r="H24" t="s">
@@ -1205,50 +1165,47 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21">
+      <c r="C25" s="7">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="8">
         <v>100</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="8">
         <v>3</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="11">
         <v>1977</v>
       </c>
-      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21">
+      <c r="C26" s="7">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="2">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="8">
         <v>55</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="8">
         <v>26</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="11">
         <v>14191</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1270,8 +1227,12 @@
       <c r="F27" s="16">
         <v>4</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="17">
+        <v>2102</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
@@ -1531,7 +1492,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>4836.5200000000004</v>
+        <v>4731.3461538461543</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1556,7 +1517,7 @@
       </c>
       <c r="G41" s="18">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3108</v>
+        <v>2927.5</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8FA1B1-81E1-BA4A-8876-A6BBBFFBAE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045DF396-7CE0-2941-8BEF-853B933F5E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23320" yWindow="11060" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -287,6 +287,14 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -608,7 +616,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,92 +1218,98 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="22">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="23">
         <v>80</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="23">
         <v>4</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="24">
         <v>2102</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="22">
         <v>1.9E-3</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="23">
         <v>95</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="23">
         <v>15</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="24">
+        <v>8941</v>
+      </c>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="22">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="23">
         <v>100</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="23">
         <v>5</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="24">
+        <v>1947</v>
+      </c>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="23">
         <v>100</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="23">
         <v>6</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="24">
+        <v>13807</v>
+      </c>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
@@ -1492,7 +1506,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>4731.3461538461543</v>
+        <v>5093.4482758620688</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1517,7 +1531,7 @@
       </c>
       <c r="G41" s="18">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>2927.5</v>
+        <v>3108</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045DF396-7CE0-2941-8BEF-853B933F5E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB75ADC5-D167-6F4B-A8E5-880E5C9985DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23320" yWindow="11060" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -616,7 +616,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1312,25 +1312,27 @@
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="22">
         <v>3.3E-3</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="23">
         <v>100</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="23">
         <v>17</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="24">
+        <v>9178</v>
+      </c>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
@@ -1506,7 +1508,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>5093.4482758620688</v>
+        <v>5229.6000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1531,7 +1533,7 @@
       </c>
       <c r="G41" s="18">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3108</v>
+        <v>3324</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB75ADC5-D167-6F4B-A8E5-880E5C9985DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8331BCE4-0559-9741-B9D4-82DD5425AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23320" yWindow="11060" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -616,7 +616,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1335,25 +1335,27 @@
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="22">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="23">
         <v>100</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="23">
         <v>7</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="24">
+        <v>2268</v>
+      </c>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
@@ -1373,7 +1375,9 @@
       <c r="F33" s="16">
         <v>9</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="17">
+        <v>1965</v>
+      </c>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1508,7 +1512,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>5229.6000000000004</v>
+        <v>5035.03125</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1533,7 +1537,7 @@
       </c>
       <c r="G41" s="18">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3324</v>
+        <v>2927.5</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8331BCE4-0559-9741-B9D4-82DD5425AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158EF592-4F5F-B445-89EC-1FC0894529D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23320" yWindow="11060" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -616,7 +616,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1358,27 +1358,27 @@
       <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="22">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="23">
         <v>85</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="23">
         <v>9</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="24">
         <v>1965</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
@@ -1398,7 +1398,9 @@
       <c r="F34" s="16">
         <v>38</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="17">
+        <v>9007</v>
+      </c>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1512,7 +1514,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>5035.03125</v>
+        <v>5155.393939393939</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1537,7 +1539,7 @@
       </c>
       <c r="G41" s="18">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>2927.5</v>
+        <v>3108</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158EF592-4F5F-B445-89EC-1FC0894529D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C97F32-56E3-BF4B-BB66-8E49CB7808E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23320" yWindow="11060" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>XX</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Population deviation in DRA reported as 0.71%.</t>
+  </si>
+  <si>
+    <t>Population deviation in DRA reported as 1.01%.</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,48 +1384,50 @@
       <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="22">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="23">
         <v>39</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="23">
         <v>38</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="24">
         <v>9007</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="22">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="23">
         <v>38</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="23">
         <v>4</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="24">
+        <v>2745</v>
+      </c>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
@@ -1442,8 +1447,12 @@
       <c r="F36" s="16">
         <v>11</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="17">
+        <v>2465</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
@@ -1514,7 +1523,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>5155.393939393939</v>
+        <v>5009.6571428571433</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1539,7 +1548,7 @@
       </c>
       <c r="G41" s="18">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>3108</v>
+        <v>2747</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C97F32-56E3-BF4B-BB66-8E49CB7808E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0091A-F342-9E41-99A6-D1290E815B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23320" yWindow="11060" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>XX</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Population deviation in DRA reported as 1.01%.</t>
+  </si>
+  <si>
+    <t>Population deviation in DRA reported as 0.9%.</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,24 +1433,24 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="22">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="23">
         <v>91</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="23">
         <v>11</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="24">
         <v>2465</v>
       </c>
       <c r="H36" s="19" t="s">
@@ -1472,8 +1475,12 @@
       <c r="F37" s="16">
         <v>10</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="17">
+        <v>7434</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
@@ -1523,7 +1530,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
-        <v>5009.6571428571433</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1548,7 +1555,7 @@
       </c>
       <c r="G41" s="18">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>2747</v>
+        <v>2927.5</v>
       </c>
     </row>
   </sheetData>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0091A-F342-9E41-99A6-D1290E815B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11862D3-58F1-5D41-992F-EE4BBC4F055F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23320" yWindow="11060" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
@@ -240,18 +240,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -267,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -284,14 +278,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -622,7 +608,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,284 +1210,284 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="16">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="17">
         <v>80</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="17">
         <v>4</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="18">
         <v>2102</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="16">
         <v>1.9E-3</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="17">
         <v>95</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="17">
         <v>15</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="18">
         <v>8941</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="16">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="17">
         <v>100</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="17">
         <v>5</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="18">
         <v>1947</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="16">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="17">
         <v>100</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="17">
         <v>6</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="18">
         <v>13807</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="16">
         <v>3.3E-3</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="17">
         <v>100</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="17">
         <v>17</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="18">
         <v>9178</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="16">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="17">
         <v>100</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="17">
         <v>7</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="18">
         <v>2268</v>
       </c>
-      <c r="H32" s="19"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="16">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="17">
         <v>85</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="17">
         <v>9</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="18">
         <v>1965</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="16">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="17">
         <v>39</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="17">
         <v>38</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="18">
         <v>9007</v>
       </c>
-      <c r="H34" s="19"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="16">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="17">
         <v>38</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="17">
         <v>4</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="18">
         <v>2745</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="16">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="17">
         <v>91</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="17">
         <v>11</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="18">
         <v>2465</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14">
+      <c r="B37" s="14"/>
+      <c r="C37" s="15">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="16">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="17">
         <v>85</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="17">
         <v>10</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="18">
         <v>7434</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15">
         <f>575.8/86400</f>
         <v>6.664351851851851E-3</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="16">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="17">
         <v>94</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="17">
         <v>8</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H39" t="s">
@@ -1528,7 +1514,7 @@
         <f t="shared" si="1"/>
         <v>11.216216216216216</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="12">
         <f t="shared" si="1"/>
         <v>5077</v>
       </c>
@@ -1553,7 +1539,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="12">
         <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
         <v>2927.5</v>
       </c>

--- a/maps/Abstract by State.xlsx
+++ b/maps/Abstract by State.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11862D3-58F1-5D41-992F-EE4BBC4F055F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49995B55-7662-164D-A085-EFF899E06AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23320" yWindow="11060" windowWidth="27640" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>XX</t>
   </si>
@@ -207,6 +207,21 @@
   </si>
   <si>
     <t>Population deviation in DRA reported as 0.9%.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>WV</t>
   </si>
 </sst>
 </file>
@@ -261,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -279,14 +294,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -602,13 +609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,701 +859,787 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7">
+        <f>351.4/86400</f>
+        <v>4.0671296296296297E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E11" s="8">
+        <v>100</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <f>953.5/86400</f>
         <v>1.103587962962963E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>99</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>17</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>10084</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <f>522.4/86400</f>
         <v>6.0462962962962961E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>93</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="8">
         <v>9</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>5159</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <f>459/86400</f>
         <v>5.3125000000000004E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E13" s="8">
-        <v>100</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="E14" s="8">
+        <v>100</v>
+      </c>
+      <c r="F14" s="8">
         <v>4</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>4240</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="7">
         <f>446.2/86400</f>
         <v>5.1643518518518514E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="E14" s="8">
-        <v>100</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E15" s="8">
+        <v>100</v>
+      </c>
+      <c r="F15" s="8">
         <v>6</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>3693</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <f>463.1/86400</f>
         <v>5.3599537037037036E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E15" s="8">
-        <v>100</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E16" s="8">
+        <v>100</v>
+      </c>
+      <c r="F16" s="8">
         <v>6</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>3540</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <f>414.9/86400</f>
         <v>4.8020833333333327E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>99</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>9</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>2157</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="7">
         <f>408/86400</f>
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="E17" s="8">
-        <v>100</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="E18" s="8">
+        <v>100</v>
+      </c>
+      <c r="F18" s="8">
         <v>8</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>2042</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <f>587.2/86400</f>
         <v>6.7962962962962968E-3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>98</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>13</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>4805</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="7">
         <f>494.7/86400</f>
         <v>5.7256944444444447E-3</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>98</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>8</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>4110</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="7">
         <f>527.5/86400</f>
         <v>6.1053240740740738E-3</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>97</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <v>8</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <v>4604</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <f>390.7/86400</f>
         <v>4.5219907407407405E-3</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E21" s="8">
-        <v>100</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="E22" s="8">
+        <v>100</v>
+      </c>
+      <c r="F22" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>1834</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="7">
+        <f>342.6/86400</f>
+        <v>3.9652777777777776E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>100</v>
+      </c>
+      <c r="F23" s="8">
         <v>2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="G23" s="11">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
         <f>454.5/86400</f>
         <v>5.2604166666666667E-3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D24" s="2">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E22" s="8">
-        <f t="shared" ref="E22:E23" si="0">E21</f>
-        <v>100</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="E24" s="8">
+        <f>E22</f>
+        <v>100</v>
+      </c>
+      <c r="F24" s="8">
         <v>14</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G24" s="11">
         <v>2666</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C25" s="7">
         <f>376.1/86400</f>
         <v>4.3530092592592596E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="8">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="E25" s="8">
+        <f t="shared" ref="E25" si="0">E24</f>
+        <v>100</v>
+      </c>
+      <c r="F25" s="8">
         <v>3</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G25" s="11">
         <v>1402</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="7">
+        <f>334/86400</f>
+        <v>3.8657407407407408E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E26" s="8">
+        <v>100</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+      <c r="G26" s="11">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C27" s="7">
         <f>649.4/86400</f>
         <v>7.5162037037037038E-3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D27" s="2">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E27" s="8">
         <v>99</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F27" s="8">
         <v>12</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G27" s="11">
         <v>6361</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C28" s="7">
         <f>394.1/86400</f>
         <v>4.5613425925925925E-3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D28" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E25" s="8">
-        <v>100</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="E28" s="8">
+        <v>100</v>
+      </c>
+      <c r="F28" s="8">
         <v>3</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G28" s="11">
         <v>1977</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C29" s="7">
         <f>2316.8/86400</f>
         <v>2.6814814814814816E-2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D29" s="2">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E29" s="8">
         <v>55</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F29" s="8">
         <v>26</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G29" s="11">
         <v>14191</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15">
+      <c r="C30" s="7">
         <f>357.6/86400</f>
         <v>4.138888888888889E-3</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D30" s="2">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E30" s="8">
         <v>80</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F30" s="8">
         <v>4</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G30" s="11">
         <v>2102</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15">
+      <c r="C31" s="7">
         <f>852.8/86400</f>
         <v>9.8703703703703696E-3</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D31" s="2">
         <v>1.9E-3</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E31" s="8">
         <v>95</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F31" s="8">
         <v>15</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G31" s="11">
         <v>8941</v>
       </c>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15">
+      <c r="C32" s="7">
         <f>393/86400</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D32" s="2">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E29" s="17">
-        <v>100</v>
-      </c>
-      <c r="F29" s="17">
+      <c r="E32" s="8">
+        <v>100</v>
+      </c>
+      <c r="F32" s="8">
         <v>5</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G32" s="11">
         <v>1947</v>
       </c>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15">
+      <c r="C33" s="7">
         <f>410.2/86400</f>
         <v>4.7476851851851846E-3</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D33" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="17">
-        <v>100</v>
-      </c>
-      <c r="F30" s="17">
+      <c r="E33" s="8">
+        <v>100</v>
+      </c>
+      <c r="F33" s="8">
         <v>6</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G33" s="11">
         <v>13807</v>
       </c>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15">
+      <c r="C34" s="7">
         <f>894.9/86400</f>
         <v>1.0357638888888888E-2</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D34" s="2">
         <v>3.3E-3</v>
       </c>
-      <c r="E31" s="17">
-        <v>100</v>
-      </c>
-      <c r="F31" s="17">
+      <c r="E34" s="8">
+        <v>100</v>
+      </c>
+      <c r="F34" s="8">
         <v>17</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G34" s="11">
         <v>9178</v>
       </c>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="7">
+        <f>332.7/86400</f>
+        <v>3.8506944444444443E-3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E35" s="8">
+        <v>100</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2</v>
+      </c>
+      <c r="G35" s="11">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15">
+      <c r="C36" s="7">
         <f>414.8/86400</f>
         <v>4.8009259259259264E-3</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D36" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E32" s="17">
-        <v>100</v>
-      </c>
-      <c r="F32" s="17">
+      <c r="E36" s="8">
+        <v>100</v>
+      </c>
+      <c r="F36" s="8">
         <v>7</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G36" s="11">
         <v>2268</v>
       </c>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15">
+      <c r="C37" s="7">
         <f>371.6/86400</f>
         <v>4.3009259259259259E-3</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D37" s="2">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E37" s="8">
         <v>85</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F37" s="8">
         <v>9</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G37" s="11">
         <v>1965</v>
       </c>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15">
+      <c r="C38" s="7">
         <f>3033/86400</f>
         <v>3.5104166666666665E-2</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D38" s="2">
         <v>1.14E-2</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E38" s="8">
         <v>39</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F38" s="8">
         <v>38</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G38" s="11">
         <v>9007</v>
       </c>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15">
+      <c r="C39" s="7">
         <f>241.8/86400</f>
         <v>2.7986111111111111E-3</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D39" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E39" s="8">
         <v>38</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F39" s="8">
         <v>4</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G39" s="11">
         <v>2745</v>
       </c>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15">
+      <c r="C40" s="7">
         <f>443.6/86400</f>
         <v>5.1342592592592594E-3</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D40" s="2">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E40" s="8">
         <v>91</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F40" s="8">
         <v>11</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G40" s="11">
         <v>2465</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15">
+      <c r="C41" s="7">
         <f>647.3/86400</f>
         <v>7.4918981481481477E-3</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D41" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E41" s="8">
         <v>85</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F41" s="8">
         <v>10</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G41" s="11">
         <v>7434</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15">
+      <c r="C42" s="7">
         <f>575.8/86400</f>
         <v>6.664351851851851E-3</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D42" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E42" s="8">
         <v>94</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F42" s="8">
         <v>8</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H39" t="s">
+      <c r="G42" s="11">
+        <v>7059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="7">
+        <f>385.2/86400</f>
+        <v>4.4583333333333332E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E43" s="8">
+        <v>100</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="7">
-        <f t="shared" ref="C40:G40" si="1">AVERAGE(C2:C39)</f>
-        <v>1.0855073823823823E-2</v>
-      </c>
-      <c r="D40" s="2">
-        <f>AVERAGE(D2:D39)</f>
-        <v>5.1162162162162149E-3</v>
-      </c>
-      <c r="E40" s="8">
+      <c r="C45" s="7">
+        <f t="shared" ref="C45:G45" si="1">AVERAGE(C2:C44)</f>
+        <v>1.0043926366843033E-2</v>
+      </c>
+      <c r="D45" s="2">
+        <f>AVERAGE(D2:D44)</f>
+        <v>4.7523809523809515E-3</v>
+      </c>
+      <c r="E45" s="8">
         <f t="shared" si="1"/>
-        <v>90.189189189189193</v>
-      </c>
-      <c r="F40" s="8">
+        <v>91.357142857142861</v>
+      </c>
+      <c r="F45" s="8">
         <f t="shared" si="1"/>
-        <v>11.216216216216216</v>
-      </c>
-      <c r="G40" s="12">
+        <v>10.119047619047619</v>
+      </c>
+      <c r="G45" s="12">
         <f t="shared" si="1"/>
-        <v>5077</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+        <v>4614.666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="7">
-        <f t="shared" ref="C41" si="2">MEDIAN(C2:C39)</f>
-        <v>5.185185185185185E-3</v>
-      </c>
-      <c r="D41" s="2">
-        <f>MEDIAN(D2:D39)</f>
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" ref="E41:F41" si="3">MEDIAN(E2:E39)</f>
+      <c r="C46" s="7">
+        <f t="shared" ref="C46" si="2">MEDIAN(C2:C44)</f>
+        <v>4.9849537037037032E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <f>MEDIAN(D2:D44)</f>
+        <v>3.9500000000000004E-3</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" ref="E46:F46" si="3">MEDIAN(E2:E44)</f>
         <v>99</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F46" s="8">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G41" s="12">
-        <f t="shared" ref="G41" si="4">MEDIAN(G2:G39)</f>
-        <v>2927.5</v>
+      <c r="G46" s="12">
+        <f t="shared" ref="G46" si="4">MEDIAN(G2:G44)</f>
+        <v>2721.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H37">
-    <sortCondition ref="A4:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H41">
+    <sortCondition ref="A4:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
